--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_681.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_681.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g32431-d77110-Reviews-Rodeway_Inn_Regalodge-Glendale_California.html</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>70</t>
   </si>
   <si>
     <t>https://www.orbitz.com/Los-Angeles-Hotels-Rodeway-Inn-Regalodge.h41516.Hotel-Information</t>
@@ -532,11 +541,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +573,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_681.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_681.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="280">
   <si>
     <t>STR#</t>
   </si>
@@ -148,6 +148,726 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>07/10/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d77110-r573337653-Rodeway_Inn_Regalodge-Glendale_California.html</t>
+  </si>
+  <si>
+    <t>32431</t>
+  </si>
+  <si>
+    <t>77110</t>
+  </si>
+  <si>
+    <t>573337653</t>
+  </si>
+  <si>
+    <t>04/14/2018</t>
+  </si>
+  <si>
+    <t>Great value</t>
+  </si>
+  <si>
+    <t>One of the least expensive places in Glendale and an excellent location. Within walking distance of the mall and so many restaurants. They have a nice pool and break room with a microwave. Have stayed here for 5 nights 3 different times and despite being on a busy street, it is very quiet &amp; beds very comfortable. Have a small fridge in rooms. Our only complaint is the remote worked for the tv except the on/off button and parking is nearly always full but we've always managed to find a spot. There never seems to be a vacancy so make sure you book in advance. They only charge $10 a night for a full size rollaway so even a better deal for a party of 3 (or 2 couples and another party).MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>One of the least expensive places in Glendale and an excellent location. Within walking distance of the mall and so many restaurants. They have a nice pool and break room with a microwave. Have stayed here for 5 nights 3 different times and despite being on a busy street, it is very quiet &amp; beds very comfortable. Have a small fridge in rooms. Our only complaint is the remote worked for the tv except the on/off button and parking is nearly always full but we've always managed to find a spot. There never seems to be a vacancy so make sure you book in advance. They only charge $10 a night for a full size rollaway so even a better deal for a party of 3 (or 2 couples and another party).More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d77110-r567370808-Rodeway_Inn_Regalodge-Glendale_California.html</t>
+  </si>
+  <si>
+    <t>567370808</t>
+  </si>
+  <si>
+    <t>03/18/2018</t>
+  </si>
+  <si>
+    <t>Great Price and Excellent Location</t>
+  </si>
+  <si>
+    <t>Directly across the street from the Glendale Galleria, with lots of upscale shops and restaurants. The room was under $90/night and provide clean basic accommodations. Parking was free and we never had trouble finding a spot. The wifi worked well and the room was quiet and comfortable.</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d77110-r548284363-Rodeway_Inn_Regalodge-Glendale_California.html</t>
+  </si>
+  <si>
+    <t>548284363</t>
+  </si>
+  <si>
+    <t>12/20/2017</t>
+  </si>
+  <si>
+    <t>Good value for money</t>
+  </si>
+  <si>
+    <t>You cant expect 5 star quality for these prices but it was good value for money. Fairly clean and in good order. Very convenient location. Adequate facilities and friendly staff. Free wifi. TV channels good.</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d77110-r477816582-Rodeway_Inn_Regalodge-Glendale_California.html</t>
+  </si>
+  <si>
+    <t>477816582</t>
+  </si>
+  <si>
+    <t>04/21/2017</t>
+  </si>
+  <si>
+    <t>One night stay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This place could definitely use alot of upgrades. The room wasn't equipped with an ironing board or an iron, no blow dryer, bad lighting . Just a basic room. We literally just came here to sleep for a few hours. Very good price for that in the city of Glendale and was very clean. </t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d77110-r475398260-Rodeway_Inn_Regalodge-Glendale_California.html</t>
+  </si>
+  <si>
+    <t>475398260</t>
+  </si>
+  <si>
+    <t>04/13/2017</t>
+  </si>
+  <si>
+    <t>Great location off brand blvd!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not a bad hotel for the dollar pool wasn't open at the time great location you can walk to everything  need a blow dryer just ask the desk nice restaurant next door foxys 10% off with keycard parking wasn't a problem </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d77110-r449362734-Rodeway_Inn_Regalodge-Glendale_California.html</t>
+  </si>
+  <si>
+    <t>449362734</t>
+  </si>
+  <si>
+    <t>01/04/2017</t>
+  </si>
+  <si>
+    <t>Good location</t>
+  </si>
+  <si>
+    <t>We stayed here one night to go to the Rose Parade the next day. The reservation cost was inflated to reflect the Rose Parade events, but the prices appear very affordable other parts of the year. The restaurant next door is great for meals. We were given a New Year's gift by the check-in staff, which was a nice gesture. The motel is across the street from the Glendale mall.</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d77110-r438030360-Rodeway_Inn_Regalodge-Glendale_California.html</t>
+  </si>
+  <si>
+    <t>438030360</t>
+  </si>
+  <si>
+    <t>11/17/2016</t>
+  </si>
+  <si>
+    <t>fine for a night</t>
+  </si>
+  <si>
+    <t>stayed for a night. hotel is on a relatively busy road so if road noise is an issue for you this could be problem. also, the air conditioning unit from the next room or some other mechanical device was quite noticeable. the room was clean and everything worked fine. older hotel, paid about 90$ on a Saturday. plenty of shops, food places, etc in this area.</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d77110-r427893640-Rodeway_Inn_Regalodge-Glendale_California.html</t>
+  </si>
+  <si>
+    <t>427893640</t>
+  </si>
+  <si>
+    <t>10/14/2016</t>
+  </si>
+  <si>
+    <t>Great location and good service</t>
+  </si>
+  <si>
+    <t>It's just over an hour from LAX. If you don't have a car, you can get there purchasing a return ride with Super Shuttle (cheaper option than a taxi), book it online so you can get a little discount. Just keep in mind the traffic when you need to return to the airport with the shuttle. In this instance is best to add 2 of hours of driving time plus the usual 2 or 3hours in advance you need for flight.The location is the best thing if you're like shopping and looking for a safe area to stay in LA to walk around, this is it. The motel is right in front of the mall and a walking distance from restaurants, other luxury brand stores and a cinema if you fancy a movie at night.The room was clean and staff were good. They went the extra mile keeping my luggage for few hours without charging me a thing after check out. I will definitely stay there again.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>It's just over an hour from LAX. If you don't have a car, you can get there purchasing a return ride with Super Shuttle (cheaper option than a taxi), book it online so you can get a little discount. Just keep in mind the traffic when you need to return to the airport with the shuttle. In this instance is best to add 2 of hours of driving time plus the usual 2 or 3hours in advance you need for flight.The location is the best thing if you're like shopping and looking for a safe area to stay in LA to walk around, this is it. The motel is right in front of the mall and a walking distance from restaurants, other luxury brand stores and a cinema if you fancy a movie at night.The room was clean and staff were good. They went the extra mile keeping my luggage for few hours without charging me a thing after check out. I will definitely stay there again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d77110-r420006125-Rodeway_Inn_Regalodge-Glendale_California.html</t>
+  </si>
+  <si>
+    <t>420006125</t>
+  </si>
+  <si>
+    <t>09/18/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Simple and Clean </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A simple place but the location is amazing. A great place to leave your car and just go walking to the Galeria mall and at night you have Americana to enjoy a dinner with your date there are so many options. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d77110-r411219411-Rodeway_Inn_Regalodge-Glendale_California.html</t>
+  </si>
+  <si>
+    <t>411219411</t>
+  </si>
+  <si>
+    <t>08/26/2016</t>
+  </si>
+  <si>
+    <t>Mediocre Budget Hotel with an Excellent Location</t>
+  </si>
+  <si>
+    <t>Nestled along busting Colorado Blvd and across from the Glendale Galleria, this tiny old 30-room motel looks a bit out of place.  But that might not be a bad thing.  If you’re looking for a very reasonably priced room in a nice area, this property might be a good fit.  I had a pretty hit-and-miss experience here, which I’ll detail for you below:
+Arrival/Check In:  This is a very small property crammed on a tiny lot in a heavily-developed area.  As a result, the street out front is super-busy and the parking lot is very tight.  There actually are fewer parking spaces than rooms, but the hotel has solved this issue by allowing guests to use the parking lot at the restaurant next door if it fills up.  This seemed to happen every night around 6-7:00 pm, but was never an issue for me.  For an economy property, the grounds were in pretty nice condition.  Everything outside was well-kept and clean.  The woman who checked me in was extremely friendly and offered some dining suggestions in walking distance.  While the hotel does not serve breakfast, they offer a 10% discount at the (very good) restaurant next door.
+Location:  As stated above, this property is right across from the Glendale Galleria, so there’s endless shopping and food options right across the street in walking distance.  It’s a nice setup, though the busy street out front can make getting in/out of the...Nestled along busting Colorado Blvd and across from the Glendale Galleria, this tiny old 30-room motel looks a bit out of place.  But that might not be a bad thing.  If you’re looking for a very reasonably priced room in a nice area, this property might be a good fit.  I had a pretty hit-and-miss experience here, which I’ll detail for you below:Arrival/Check In:  This is a very small property crammed on a tiny lot in a heavily-developed area.  As a result, the street out front is super-busy and the parking lot is very tight.  There actually are fewer parking spaces than rooms, but the hotel has solved this issue by allowing guests to use the parking lot at the restaurant next door if it fills up.  This seemed to happen every night around 6-7:00 pm, but was never an issue for me.  For an economy property, the grounds were in pretty nice condition.  Everything outside was well-kept and clean.  The woman who checked me in was extremely friendly and offered some dining suggestions in walking distance.  While the hotel does not serve breakfast, they offer a 10% discount at the (very good) restaurant next door.Location:  As stated above, this property is right across from the Glendale Galleria, so there’s endless shopping and food options right across the street in walking distance.  It’s a nice setup, though the busy street out front can make getting in/out of the parking lot a challenge sometimes.Room:  A little below average.  It was pretty run down and dated, even for an economy hotel.  The carpet is well-worn and has many old stains, there were lots of scratches and even some small holes in the walls, the light switches in the bathroom were falling apart, the finish on the bathtub was coming off… you get the idea.  Nothing crazy, but enough to make you question if you should have paid a bit more to stay at the property next door.  The bed was actually pretty comfortable despite the dated bed linens.  More important than anything else, the room was very clean.  I didn’t find any real issues related to cleanliness at the whole property.So, would I do it again?  Maybe, but only if I got a really good deal again.  If you stay here, you’ll get a clean room and a decent bed.  But that’s it.  Some basic maintenance and some new bed linens would go a really long way in making this property more pleasant.  It’s doable, but it’s certainly not for everyone.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>Nestled along busting Colorado Blvd and across from the Glendale Galleria, this tiny old 30-room motel looks a bit out of place.  But that might not be a bad thing.  If you’re looking for a very reasonably priced room in a nice area, this property might be a good fit.  I had a pretty hit-and-miss experience here, which I’ll detail for you below:
+Arrival/Check In:  This is a very small property crammed on a tiny lot in a heavily-developed area.  As a result, the street out front is super-busy and the parking lot is very tight.  There actually are fewer parking spaces than rooms, but the hotel has solved this issue by allowing guests to use the parking lot at the restaurant next door if it fills up.  This seemed to happen every night around 6-7:00 pm, but was never an issue for me.  For an economy property, the grounds were in pretty nice condition.  Everything outside was well-kept and clean.  The woman who checked me in was extremely friendly and offered some dining suggestions in walking distance.  While the hotel does not serve breakfast, they offer a 10% discount at the (very good) restaurant next door.
+Location:  As stated above, this property is right across from the Glendale Galleria, so there’s endless shopping and food options right across the street in walking distance.  It’s a nice setup, though the busy street out front can make getting in/out of the...Nestled along busting Colorado Blvd and across from the Glendale Galleria, this tiny old 30-room motel looks a bit out of place.  But that might not be a bad thing.  If you’re looking for a very reasonably priced room in a nice area, this property might be a good fit.  I had a pretty hit-and-miss experience here, which I’ll detail for you below:Arrival/Check In:  This is a very small property crammed on a tiny lot in a heavily-developed area.  As a result, the street out front is super-busy and the parking lot is very tight.  There actually are fewer parking spaces than rooms, but the hotel has solved this issue by allowing guests to use the parking lot at the restaurant next door if it fills up.  This seemed to happen every night around 6-7:00 pm, but was never an issue for me.  For an economy property, the grounds were in pretty nice condition.  Everything outside was well-kept and clean.  The woman who checked me in was extremely friendly and offered some dining suggestions in walking distance.  While the hotel does not serve breakfast, they offer a 10% discount at the (very good) restaurant next door.Location:  As stated above, this property is right across from the Glendale Galleria, so there’s endless shopping and food options right across the street in walking distance.  It’s a nice setup, though the busy street out front can make getting in/out of the parking lot a challenge sometimes.Room:  A little below average.  It was pretty run down and dated, even for an economy hotel.  The carpet is well-worn and has many old stains, there were lots of scratches and even some small holes in the walls, the light switches in the bathroom were falling apart, the finish on the bathtub was coming off… you get the idea.  Nothing crazy, but enough to make you question if you should have paid a bit more to stay at the property next door.  The bed was actually pretty comfortable despite the dated bed linens.  More important than anything else, the room was very clean.  I didn’t find any real issues related to cleanliness at the whole property.So, would I do it again?  Maybe, but only if I got a really good deal again.  If you stay here, you’ll get a clean room and a decent bed.  But that’s it.  Some basic maintenance and some new bed linens would go a really long way in making this property more pleasant.  It’s doable, but it’s certainly not for everyone.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d77110-r403902827-Rodeway_Inn_Regalodge-Glendale_California.html</t>
+  </si>
+  <si>
+    <t>403902827</t>
+  </si>
+  <si>
+    <t>08/10/2016</t>
+  </si>
+  <si>
+    <t>Inexpensive place to stay in Glendale, good price for what you get</t>
+  </si>
+  <si>
+    <t>We have stated here several times. it is a good deal, OK place, clean and well kept, but nothing fancy. Right in the middle of things, easy to get around North LA area Many good places to eat, etc, Across the street from Glendale Galleria Mall.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d77110-r394345307-Rodeway_Inn_Regalodge-Glendale_California.html</t>
+  </si>
+  <si>
+    <t>394345307</t>
+  </si>
+  <si>
+    <t>07/19/2016</t>
+  </si>
+  <si>
+    <t>Decent for the weekend</t>
+  </si>
+  <si>
+    <t>It is a decent place to stay for get away weekend or for couple nights. We only stayed for one night so it was good. It just need more improvement in cleanliness thats all. comfy bed not bad. We had a Queen bed. Most important thing was it was close to so many places to go and thats the second important for me besides comfy bed. :)</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d77110-r365665427-Rodeway_Inn_Regalodge-Glendale_California.html</t>
+  </si>
+  <si>
+    <t>365665427</t>
+  </si>
+  <si>
+    <t>04/20/2016</t>
+  </si>
+  <si>
+    <t>Overnight Stay</t>
+  </si>
+  <si>
+    <t>The location was great for our trip to Universal Studios and there wasn't any other hotels in the area for the price they charged.  Stayed in a room that had 3 beds, that was all they had left.  Decent large sized room, location was good, room was clean however, the shower would not drain when taking a shower and there was construction going on right behind the hotel that was very loud.  I might not had stayed here had I been warned the construction was occurring. Friendly fast service by the gentlemen at the front desk.  Happy the parking and wifi was free here!</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d77110-r363133649-Rodeway_Inn_Regalodge-Glendale_California.html</t>
+  </si>
+  <si>
+    <t>363133649</t>
+  </si>
+  <si>
+    <t>04/10/2016</t>
+  </si>
+  <si>
+    <t>Location, location, location!</t>
+  </si>
+  <si>
+    <t>I traveled for Evolving Out Loud event held at Alex Theater and this was my best bet. I'm glad I stayed here because last time I stayed at Glen Capri and the customer service was terrible! Here at Rodeway Inn the staff was super-nice and helpful. I love 'Don't worry!' attitude. Thank You, Reeta and everyone! I will stay here again in August! oxoxo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d77110-r328371048-Rodeway_Inn_Regalodge-Glendale_California.html</t>
+  </si>
+  <si>
+    <t>328371048</t>
+  </si>
+  <si>
+    <t>11/22/2015</t>
+  </si>
+  <si>
+    <t>November 2015 - Mid Week Stay</t>
+  </si>
+  <si>
+    <t>Seems to have changed ownership since my last visit to this property in 2014.  Stayed mid week for 4 nights.  Pool was closed which seemed a shame, was at your own risk bathing anyway.  Housekeeping for me in Room 108 was very quick and helpful.  I would stay there again.  Some confusion as to whether any discount could be applied at Foxy's restaurant next door.</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d77110-r311215911-Rodeway_Inn_Regalodge-Glendale_California.html</t>
+  </si>
+  <si>
+    <t>311215911</t>
+  </si>
+  <si>
+    <t>09/17/2015</t>
+  </si>
+  <si>
+    <t>Nice, clean,Close to Universal Studios Hollywood</t>
+  </si>
+  <si>
+    <t>I got a deal on this hotel thru Choice Hotels ($60/night down from $80) convenient, and safe area. 15 min. drive to Universal Studios, Hollywood; 25 min. to downtown LA. No problems or extra fees at check-in,room was clean,tv worked. Only suggestions for improvement would be to provide breakfast or offer discount at Restaurant next door..and to sell discounted S. California theme park tickets (Universal, Seaworld, etc)</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d77110-r295754703-Rodeway_Inn_Regalodge-Glendale_California.html</t>
+  </si>
+  <si>
+    <t>295754703</t>
+  </si>
+  <si>
+    <t>08/04/2015</t>
+  </si>
+  <si>
+    <t>YIKES!</t>
+  </si>
+  <si>
+    <t>It is a basic old school motel not a hotel.  Kinda rundown.  For the price I paid I expected as much. So bad on me!  We booked thru hotels.com.The bed is OK - the room was OK but we only slept there.Directly across from the Glendale Galleria so location is pretty good.  Had a hard time squeezing my car into the last parking spot late at night.The morning we left there was a HUGE dead cockroach in the corner of the bathroom which I quickly covered with the bath towel or my wife would have freaked out.Would I stay again - no.</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d77110-r284854318-Rodeway_Inn_Regalodge-Glendale_California.html</t>
+  </si>
+  <si>
+    <t>284854318</t>
+  </si>
+  <si>
+    <t>07/01/2015</t>
+  </si>
+  <si>
+    <t>Small Beds &amp; No Breakfast :(</t>
+  </si>
+  <si>
+    <t>Its pretty small place. They have remodeled it lately. No breakfast is served. Since its in Glendale Downtown, finding a parking spot is pretty difficult. Hotel has reserved spots however it gets filled pretty quick.</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d77110-r260051060-Rodeway_Inn_Regalodge-Glendale_California.html</t>
+  </si>
+  <si>
+    <t>260051060</t>
+  </si>
+  <si>
+    <t>03/17/2015</t>
+  </si>
+  <si>
+    <t>COMFORTABLE BUT IN NEED OF AN OVERHAUL</t>
+  </si>
+  <si>
+    <t>Although the room was mostly comfortable(bedding) &amp; was clean I found it to be in NEED of a REMODEL. There was nothing all that bad with the room just WORN &amp; OUT DATED. This is a small property &amp; REMODELED could be a charm ! The location is GREAT ! VERY near MANY shops/restaurants/mall etc. CENTRAL Glendale, Ca. location ! They had a "Coffee Room" in the morning(opens @ 7am) which had a GOOD tasting coffee unlimited cups ! (there are not coffee makers in the rooms).</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d77110-r258695972-Rodeway_Inn_Regalodge-Glendale_California.html</t>
+  </si>
+  <si>
+    <t>258695972</t>
+  </si>
+  <si>
+    <t>03/09/2015</t>
+  </si>
+  <si>
+    <t>Happy</t>
+  </si>
+  <si>
+    <t>Big room, nice bathroom, and nice staff. Near to Americana mall,restaurant, to my church. Busy place but not loud in the room. You can relax in the nice room in the good price. Definitely I will come back again.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d77110-r253978780-Rodeway_Inn_Regalodge-Glendale_California.html</t>
+  </si>
+  <si>
+    <t>253978780</t>
+  </si>
+  <si>
+    <t>02/13/2015</t>
+  </si>
+  <si>
+    <t>Nice basic hotel</t>
+  </si>
+  <si>
+    <t>Clean and inexpensive. Central to everything. They had good wireless wi-fi and we were able to plan our day out easily with both a laptop and phones. It was quiet at night even though it was by a shopping center and major road.</t>
+  </si>
+  <si>
+    <t>February 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d77110-r215063835-Rodeway_Inn_Regalodge-Glendale_California.html</t>
+  </si>
+  <si>
+    <t>215063835</t>
+  </si>
+  <si>
+    <t>07/12/2014</t>
+  </si>
+  <si>
+    <t>Well This Time Never Again</t>
+  </si>
+  <si>
+    <t>I had a bad experience with this property last year and said I would never stay at the property again. Well I thought I would give them a second chance. Never again...First things first. I booked a month in advance with the property's website. I specifically checked the non-smoking room box. I get to the property and they have one room left and its a smoking room. The front desk staff would not work with me on this at all. I even had a confirmation e-mail I printed out with the non-smoking preference referenced on the confirmation. I have never smoked in my life.Then I could not get on any of 3 wireless routers they had. I call the front desk and they say, "you are the only one complaining". I explained I was in IT and did IT work everyday. Then they changed their attitude. I finally had to use a hardwired connection in the room. The alarm clock in broken in the room. The air conditioning up down control button for temperature were broken/pushed into the unit, worthless. There is not enough parking for all guests, lot too small.The one exception is the cleaning staff is wonderful. They always do a good job, are nice and always say hi. I strongly recommend you never stay at this property ever.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>I had a bad experience with this property last year and said I would never stay at the property again. Well I thought I would give them a second chance. Never again...First things first. I booked a month in advance with the property's website. I specifically checked the non-smoking room box. I get to the property and they have one room left and its a smoking room. The front desk staff would not work with me on this at all. I even had a confirmation e-mail I printed out with the non-smoking preference referenced on the confirmation. I have never smoked in my life.Then I could not get on any of 3 wireless routers they had. I call the front desk and they say, "you are the only one complaining". I explained I was in IT and did IT work everyday. Then they changed their attitude. I finally had to use a hardwired connection in the room. The alarm clock in broken in the room. The air conditioning up down control button for temperature were broken/pushed into the unit, worthless. There is not enough parking for all guests, lot too small.The one exception is the cleaning staff is wonderful. They always do a good job, are nice and always say hi. I strongly recommend you never stay at this property ever.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d77110-r210072434-Rodeway_Inn_Regalodge-Glendale_California.html</t>
+  </si>
+  <si>
+    <t>210072434</t>
+  </si>
+  <si>
+    <t>06/12/2014</t>
+  </si>
+  <si>
+    <t>Clean and comfortable with good managers and a great location</t>
+  </si>
+  <si>
+    <t>All the basics were perfect.  The room was indeed a non-smoking room.  The AC was cold, as was the mini fridge.  The bed was comfortable and the shower was hot and powerful.  Plus everything was clean, clean, clean.  My wife had an important interview, but she forgot her hair dryer.  Rita (manager) found a hair dryer (at 5AM!).  We had prepaid for three nights, but needed to leave after two, but David (manager) was very courteous and credited back the nights charge promptly.  The location is safe, next door to a good restaurant (Foxy's) and with the Americana and Galleria malls just across the street.   For the price, you cannot beat the Regalodge on Colorado.MoreShow less</t>
+  </si>
+  <si>
+    <t>All the basics were perfect.  The room was indeed a non-smoking room.  The AC was cold, as was the mini fridge.  The bed was comfortable and the shower was hot and powerful.  Plus everything was clean, clean, clean.  My wife had an important interview, but she forgot her hair dryer.  Rita (manager) found a hair dryer (at 5AM!).  We had prepaid for three nights, but needed to leave after two, but David (manager) was very courteous and credited back the nights charge promptly.  The location is safe, next door to a good restaurant (Foxy's) and with the Americana and Galleria malls just across the street.   For the price, you cannot beat the Regalodge on Colorado.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d77110-r208427859-Rodeway_Inn_Regalodge-Glendale_California.html</t>
+  </si>
+  <si>
+    <t>208427859</t>
+  </si>
+  <si>
+    <t>06/01/2014</t>
+  </si>
+  <si>
+    <t>Looking for an expensive room while you are out sightseeing? This is it!</t>
+  </si>
+  <si>
+    <t>If you are traveling to the L.A. /Hollywood /Universal Studios area, this is the best deal going. It is a no frills room with a comfy bed. Has a small table with two chairs, a decent refer and a bath/shower combo. It is located right next door to a restrauant (foxyies) and just across the street from two different malls.  Lots of shopping and food within walking distance and even a micro brew (BJ's) about 5 mins walk away. The pool is very clean and the hotel is an older place, but well kept up and very clean. You could pay almost twice as much just a couple of doors away at a hotel that has a "free" breakfast, but we were able to save money by buying our own breakfast out. Parking is ample and easy to get into and out of and it has free wifi, but it is very slow. The rooms are quiet, we could not hear any tv's at night from the other guests, but you could hear some footfalls in the room above. This is a safe area to walk around at night and there is security at the malls. Foxies will give you a 10% discount by showing them a room key.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>If you are traveling to the L.A. /Hollywood /Universal Studios area, this is the best deal going. It is a no frills room with a comfy bed. Has a small table with two chairs, a decent refer and a bath/shower combo. It is located right next door to a restrauant (foxyies) and just across the street from two different malls.  Lots of shopping and food within walking distance and even a micro brew (BJ's) about 5 mins walk away. The pool is very clean and the hotel is an older place, but well kept up and very clean. You could pay almost twice as much just a couple of doors away at a hotel that has a "free" breakfast, but we were able to save money by buying our own breakfast out. Parking is ample and easy to get into and out of and it has free wifi, but it is very slow. The rooms are quiet, we could not hear any tv's at night from the other guests, but you could hear some footfalls in the room above. This is a safe area to walk around at night and there is security at the malls. Foxies will give you a 10% discount by showing them a room key.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d77110-r174055022-Rodeway_Inn_Regalodge-Glendale_California.html</t>
+  </si>
+  <si>
+    <t>174055022</t>
+  </si>
+  <si>
+    <t>08/25/2013</t>
+  </si>
+  <si>
+    <t>good for a one night stay.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">spent two nights..  service was good,  male manager  roams around and kinda creeps  you out a little as if your going something you shouldn't.  Coffee was a joke.  Bathroom ( shower head was to hard) ( shower drain was clogged).  fridge was dirty but worked. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d77110-r172153066-Rodeway_Inn_Regalodge-Glendale_California.html</t>
+  </si>
+  <si>
+    <t>172153066</t>
+  </si>
+  <si>
+    <t>08/13/2013</t>
+  </si>
+  <si>
+    <t>very Impressed</t>
+  </si>
+  <si>
+    <t>We read some reviews before I booked the rooms so I had my reservations about staying but went ahead and booked it because it was close to malls and stores.  Upon checkin I was greeted by a very nice gentleman.  Our rooms were ready and to my amazement the rooms were clean and staff was great.  Our kids used the pool and had fun.  They accommodated us as best they could with getting our rooms as close together as possible because we had 4 rooms. We had a great stay and will stay again if in the area.  Great place.!</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d77110-r165626543-Rodeway_Inn_Regalodge-Glendale_California.html</t>
+  </si>
+  <si>
+    <t>165626543</t>
+  </si>
+  <si>
+    <t>06/29/2013</t>
+  </si>
+  <si>
+    <t>Your average basic motel</t>
+  </si>
+  <si>
+    <t>Nothing special about this place; the rooms are all pretty basic standard motel rooms except that they come with a flat screen tv. It's in a great location right across the Glendale Galleria. Overall, great value for the price and location and a perfectly suitable place to lay your head after a long day or two of being out and about in LA or Glendale.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d77110-r152383699-Rodeway_Inn_Regalodge-Glendale_California.html</t>
+  </si>
+  <si>
+    <t>152383699</t>
+  </si>
+  <si>
+    <t>02/17/2013</t>
+  </si>
+  <si>
+    <t>Good place for the money</t>
+  </si>
+  <si>
+    <t>I recently stayed at this motel for 7 nights.  Very plain except for the flat screen TV and reliable internet.  Cleaning crew was very good.  There was some paint missing but not a bad room.  It was a little noisy being right next to Colorado but not much noise from the parking lot or the upstairs.  There is coffee at a little after 7:00 am.  Diner right next door and big shopping mall  accross the street.  Great location especially for the price.</t>
+  </si>
+  <si>
+    <t>February 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d77110-r150552269-Rodeway_Inn_Regalodge-Glendale_California.html</t>
+  </si>
+  <si>
+    <t>150552269</t>
+  </si>
+  <si>
+    <t>01/24/2013</t>
+  </si>
+  <si>
+    <t>Good Deal</t>
+  </si>
+  <si>
+    <t>One of the cheapest deals you can find in Glendale. It has a great location across from the Glendale Galleria and next to Foxy's Restaurant. It had some peeling paint and a few cobwebs, but clean sheets, flat screen TVs, cable, wireless internet and a fantasic cleaning crew (I always had clean fresh towels and brand new bars of soap). Im a college student doing research and I stayed here for five nights and left a very satisfied customer!</t>
+  </si>
+  <si>
+    <t>January 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d77110-r147322135-Rodeway_Inn_Regalodge-Glendale_California.html</t>
+  </si>
+  <si>
+    <t>147322135</t>
+  </si>
+  <si>
+    <t>12/12/2012</t>
+  </si>
+  <si>
+    <t>Small economy hotel. Small parking lot</t>
+  </si>
+  <si>
+    <t>Some of the initial reviews on this hotel made me a little weary but it was in my budget and I didn't get the impression that it was in a sketchy neighborhood so I went for it.My and my party arrived very late but my rooms were still held. Check in was quick and we got our rooms no hassle. They even had the rollaway bed already in one of the rooms like I requested and that doesn't happen too oftenThe downsides...the really small parking lot. We were towing a trailer so our choices were to park in a nearby lot or on one of the residential streets.The shower was kinda crazy and only sprayed one solid high pressure stream without much coverage so I was like showering with a garden hose. The fan in the bathroom was really annoyingly loud and probably didn't work like it was supposed to. Overall my stay was fine. A basic hotel if you're just looking for a place to crashMoreShow less</t>
+  </si>
+  <si>
+    <t>Some of the initial reviews on this hotel made me a little weary but it was in my budget and I didn't get the impression that it was in a sketchy neighborhood so I went for it.My and my party arrived very late but my rooms were still held. Check in was quick and we got our rooms no hassle. They even had the rollaway bed already in one of the rooms like I requested and that doesn't happen too oftenThe downsides...the really small parking lot. We were towing a trailer so our choices were to park in a nearby lot or on one of the residential streets.The shower was kinda crazy and only sprayed one solid high pressure stream without much coverage so I was like showering with a garden hose. The fan in the bathroom was really annoyingly loud and probably didn't work like it was supposed to. Overall my stay was fine. A basic hotel if you're just looking for a place to crashMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d77110-r136099428-Rodeway_Inn_Regalodge-Glendale_California.html</t>
+  </si>
+  <si>
+    <t>136099428</t>
+  </si>
+  <si>
+    <t>08/02/2012</t>
+  </si>
+  <si>
+    <t>Not a great place.</t>
+  </si>
+  <si>
+    <t>Nice, quiet stay. Very small hotel. Had a refrigerator, but no microwave. There is a microwave for use in the coffee room, but it is only open in the mornings. Pretty old rooms, bathroom had cracked tiles and tub stopped up. There were ants all over the bathroom! I don't know where they were coming from, but I assume the vent in the ceiling. I could see straight through it. Linens seemed clean, but were very cheap. I wasn't expecting much, but it still could have been better. The pool looked very dirty. When we got there the ice machine was leaking all over the place. The management attempted to clean it up, but there was still puddles right in front of the stairs and it was slick as I almost fell.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2012</t>
+  </si>
+  <si>
+    <t>Nice, quiet stay. Very small hotel. Had a refrigerator, but no microwave. There is a microwave for use in the coffee room, but it is only open in the mornings. Pretty old rooms, bathroom had cracked tiles and tub stopped up. There were ants all over the bathroom! I don't know where they were coming from, but I assume the vent in the ceiling. I could see straight through it. Linens seemed clean, but were very cheap. I wasn't expecting much, but it still could have been better. The pool looked very dirty. When we got there the ice machine was leaking all over the place. The management attempted to clean it up, but there was still puddles right in front of the stairs and it was slick as I almost fell.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d77110-r132023404-Rodeway_Inn_Regalodge-Glendale_California.html</t>
+  </si>
+  <si>
+    <t>132023404</t>
+  </si>
+  <si>
+    <t>06/15/2012</t>
+  </si>
+  <si>
+    <t>Cheap and cheerfull</t>
+  </si>
+  <si>
+    <t>We had 3 nights here, mainly as Glendale was central to where we wanted to visit and the hotel was walking distance to several restaurants/shops.The front desk staff were friendly and had lots of area information and driving directions.The room was standard motel stuff, but this was one of the cheaper rooms around and you get what you pay for.All in all, good location and good value.</t>
+  </si>
+  <si>
+    <t>February 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d77110-r122630450-Rodeway_Inn_Regalodge-Glendale_California.html</t>
+  </si>
+  <si>
+    <t>122630450</t>
+  </si>
+  <si>
+    <t>01/05/2012</t>
+  </si>
+  <si>
+    <t>Stayed one night and cancelled the rest</t>
+  </si>
+  <si>
+    <t>Room seemed and smelled old, very noisy, not very comfortable, cancelled the rest of the week. The employee at the front desk was nice though.</t>
+  </si>
+  <si>
+    <t>March 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d77110-r102180206-Rodeway_Inn_Regalodge-Glendale_California.html</t>
+  </si>
+  <si>
+    <t>102180206</t>
+  </si>
+  <si>
+    <t>03/30/2011</t>
+  </si>
+  <si>
+    <t>Bed bug inn</t>
+  </si>
+  <si>
+    <t>This motel is involved in a major bed bug lawsuit. I think that's all I really need to say.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d77110-r67760440-Rodeway_Inn_Regalodge-Glendale_California.html</t>
+  </si>
+  <si>
+    <t>67760440</t>
+  </si>
+  <si>
+    <t>06/16/2010</t>
+  </si>
+  <si>
+    <t>Halfway decent sums it about up</t>
+  </si>
+  <si>
+    <t>I had an early meeting in Glendale Galleria so I decided to book a motel close by. The Rodeway Inn was the cheapest (about $60/night) and seemed decent/safe enough as I'm very familiar with the area. Whoever wrote that it is halfway decent pretty much hits the nail on the head. There's really NO reason to stay in Glendale if you're visiting L.A. unless you have a meeting close by. 
+The Rodeway Inn is 100% no frills. There are no amenities, no fancy lobby, no mint on the pillow. It's simply a good-enough place to rest your head for a night or two. 
+The room I booked was a king no-smoking and it was pretty big, bigger than I expected. There was enough room for a king bed and a desk/workstation, plus dresser drawers, a big closet area and a small-ish bathroom. The room was clean. The bed was fine though the pillows were pretty weak. There is an in-unit AC which I used the entire night. The bathroom is clean but the bathtub looks old and just a touch icky. The shower was very weak but it did its job and there was plentiful hot water. 
+The parking is free but the spots are small. Also, there is free wireless Internet - just ask the front desk for the password. The Internet coverage was great.
+The motel is right across the street from the Glendale Galleria, the Americana, next...I had an early meeting in Glendale Galleria so I decided to book a motel close by. The Rodeway Inn was the cheapest (about $60/night) and seemed decent/safe enough as I'm very familiar with the area. Whoever wrote that it is halfway decent pretty much hits the nail on the head. There's really NO reason to stay in Glendale if you're visiting L.A. unless you have a meeting close by. The Rodeway Inn is 100% no frills. There are no amenities, no fancy lobby, no mint on the pillow. It's simply a good-enough place to rest your head for a night or two. The room I booked was a king no-smoking and it was pretty big, bigger than I expected. There was enough room for a king bed and a desk/workstation, plus dresser drawers, a big closet area and a small-ish bathroom. The room was clean. The bed was fine though the pillows were pretty weak. There is an in-unit AC which I used the entire night. The bathroom is clean but the bathtub looks old and just a touch icky. The shower was very weak but it did its job and there was plentiful hot water. The parking is free but the spots are small. Also, there is free wireless Internet - just ask the front desk for the password. The Internet coverage was great.The motel is right across the street from the Glendale Galleria, the Americana, next to 7/11 and a host of other stores. It is definitely a bustling street and because the motel is right on Colorado Blvd., it is super loud. There is a lot of street noise. Plus, because there isn't a lobby or courtyard, you can hear the guests across the way if they are talking loudly. My neighbors were also pretty loud and I could hear them talking throughout the night so the walls are definitely thin.I didn't feel ripped off for $60/night but I probably wouldn't stay here again. The noise was a little difficult to deal with and there just wasn't anything about it that would make me want to go back. The lobby clerk was very nice though. If you have to be in the Glendale area and you're only staying for a night or two, this isn't a bad alternative.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2010</t>
+  </si>
+  <si>
+    <t>I had an early meeting in Glendale Galleria so I decided to book a motel close by. The Rodeway Inn was the cheapest (about $60/night) and seemed decent/safe enough as I'm very familiar with the area. Whoever wrote that it is halfway decent pretty much hits the nail on the head. There's really NO reason to stay in Glendale if you're visiting L.A. unless you have a meeting close by. 
+The Rodeway Inn is 100% no frills. There are no amenities, no fancy lobby, no mint on the pillow. It's simply a good-enough place to rest your head for a night or two. 
+The room I booked was a king no-smoking and it was pretty big, bigger than I expected. There was enough room for a king bed and a desk/workstation, plus dresser drawers, a big closet area and a small-ish bathroom. The room was clean. The bed was fine though the pillows were pretty weak. There is an in-unit AC which I used the entire night. The bathroom is clean but the bathtub looks old and just a touch icky. The shower was very weak but it did its job and there was plentiful hot water. 
+The parking is free but the spots are small. Also, there is free wireless Internet - just ask the front desk for the password. The Internet coverage was great.
+The motel is right across the street from the Glendale Galleria, the Americana, next...I had an early meeting in Glendale Galleria so I decided to book a motel close by. The Rodeway Inn was the cheapest (about $60/night) and seemed decent/safe enough as I'm very familiar with the area. Whoever wrote that it is halfway decent pretty much hits the nail on the head. There's really NO reason to stay in Glendale if you're visiting L.A. unless you have a meeting close by. The Rodeway Inn is 100% no frills. There are no amenities, no fancy lobby, no mint on the pillow. It's simply a good-enough place to rest your head for a night or two. The room I booked was a king no-smoking and it was pretty big, bigger than I expected. There was enough room for a king bed and a desk/workstation, plus dresser drawers, a big closet area and a small-ish bathroom. The room was clean. The bed was fine though the pillows were pretty weak. There is an in-unit AC which I used the entire night. The bathroom is clean but the bathtub looks old and just a touch icky. The shower was very weak but it did its job and there was plentiful hot water. The parking is free but the spots are small. Also, there is free wireless Internet - just ask the front desk for the password. The Internet coverage was great.The motel is right across the street from the Glendale Galleria, the Americana, next to 7/11 and a host of other stores. It is definitely a bustling street and because the motel is right on Colorado Blvd., it is super loud. There is a lot of street noise. Plus, because there isn't a lobby or courtyard, you can hear the guests across the way if they are talking loudly. My neighbors were also pretty loud and I could hear them talking throughout the night so the walls are definitely thin.I didn't feel ripped off for $60/night but I probably wouldn't stay here again. The noise was a little difficult to deal with and there just wasn't anything about it that would make me want to go back. The lobby clerk was very nice though. If you have to be in the Glendale area and you're only staying for a night or two, this isn't a bad alternative.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d77110-r27068603-Rodeway_Inn_Regalodge-Glendale_California.html</t>
+  </si>
+  <si>
+    <t>27068603</t>
+  </si>
+  <si>
+    <t>03/29/2009</t>
+  </si>
+  <si>
+    <t>Half way decent.</t>
+  </si>
+  <si>
+    <t>We arrived very late and only stayed one night. The front desk clerk was there at check in and check out. She was very nice, and informed me that I had to pay for the room at check in. The parking lot is VERY cramped. I was in a compact car and had trouble getting in and out of there. The room itself was OK. It seemed like this place has been there for a long time. The room was old, but clean. All the plumbing seemed to work fine, but the door to the bathroom would not stay closed. There is high speed internet, but not wireless, so only one computer at a time can utilize it. The bed was awful. Too firm and uncomfortable. There was no continental breakfast. Not even coffee in the front lobby.I booked this room through a website and got a discount. The discounted price was not worth the stay. Not even for one night. I felt a bit ripped off.You are walking distance from donuts, Yoshinoya, and across the street from the Glendale Galleria. A HUGE mall to serve all your spending needs. The hotel room is in a prime location, but not worth the price I paid, and certainly not worth more than $30.00 a night!MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2009</t>
+  </si>
+  <si>
+    <t>We arrived very late and only stayed one night. The front desk clerk was there at check in and check out. She was very nice, and informed me that I had to pay for the room at check in. The parking lot is VERY cramped. I was in a compact car and had trouble getting in and out of there. The room itself was OK. It seemed like this place has been there for a long time. The room was old, but clean. All the plumbing seemed to work fine, but the door to the bathroom would not stay closed. There is high speed internet, but not wireless, so only one computer at a time can utilize it. The bed was awful. Too firm and uncomfortable. There was no continental breakfast. Not even coffee in the front lobby.I booked this room through a website and got a discount. The discounted price was not worth the stay. Not even for one night. I felt a bit ripped off.You are walking distance from donuts, Yoshinoya, and across the street from the Glendale Galleria. A HUGE mall to serve all your spending needs. The hotel room is in a prime location, but not worth the price I paid, and certainly not worth more than $30.00 a night!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d77110-r6787496-Rodeway_Inn_Regalodge-Glendale_California.html</t>
+  </si>
+  <si>
+    <t>6787496</t>
+  </si>
+  <si>
+    <t>02/12/2007</t>
+  </si>
+  <si>
+    <t>loved this place, convenient location, clean rooms.</t>
+  </si>
+  <si>
+    <t>We stayed here for a couple of nights during our drive down to southern california and it was a great place to stay. its conveniently located 1/2 block away from the glendale galleria and a couple blocks away from the glendale marketplace. the hotel offers clean rooms and good services for its price. not incredibly fancy...but its still great. definitely recommend this place.</t>
+  </si>
+  <si>
+    <t>February 2007</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d77110-r3533662-Rodeway_Inn_Regalodge-Glendale_California.html</t>
+  </si>
+  <si>
+    <t>3533662</t>
+  </si>
+  <si>
+    <t>06/05/2005</t>
+  </si>
+  <si>
+    <t>ant, spying manager, noise, and unknown red stinks on the bed cover and more...</t>
+  </si>
+  <si>
+    <t>this motel is very bad even for that $. I paid for a room and added an extra person since 3 of my friends will be staying there. But the person upstair (turns out to be a manger!) keep spying at us and so i told her to mind her own business. She then kept saying are you 4 people (I was checking-in for 3 of my friends, i stayed with my relatives) staying!? what the heck~! I said 3 already to the front desk staff!Then we found out there are some unknown red stinks on the bed cover! and also there's ants running around the room!oh there's morning coffee....iced cold and probably from weeks ago~!and in the morning, a kid (age 7-8?) from the hotel is operating the front desk! (looks like this is a family-run business, the original front desk maybe the husband, spying manger maybe the wife, and probably that's their kid!really, please, pay a little bit more for the vagabonds inn just right next to it. There's a bestwestern right across too! I know i should have.MoreShow less</t>
+  </si>
+  <si>
+    <t>this motel is very bad even for that $. I paid for a room and added an extra person since 3 of my friends will be staying there. But the person upstair (turns out to be a manger!) keep spying at us and so i told her to mind her own business. She then kept saying are you 4 people (I was checking-in for 3 of my friends, i stayed with my relatives) staying!? what the heck~! I said 3 already to the front desk staff!Then we found out there are some unknown red stinks on the bed cover! and also there's ants running around the room!oh there's morning coffee....iced cold and probably from weeks ago~!and in the morning, a kid (age 7-8?) from the hotel is operating the front desk! (looks like this is a family-run business, the original front desk maybe the husband, spying manger maybe the wife, and probably that's their kid!really, please, pay a little bit more for the vagabonds inn just right next to it. There's a bestwestern right across too! I know i should have.More</t>
   </si>
 </sst>
 </file>
@@ -648,6 +1368,2382 @@
         <v>43</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>4769</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>4</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="n">
+        <v>5</v>
+      </c>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>4</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>4769</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>56</v>
+      </c>
+      <c r="J3" t="s">
+        <v>57</v>
+      </c>
+      <c r="K3" t="s">
+        <v>58</v>
+      </c>
+      <c r="L3" t="s">
+        <v>59</v>
+      </c>
+      <c r="M3" t="n">
+        <v>4</v>
+      </c>
+      <c r="N3" t="s">
+        <v>60</v>
+      </c>
+      <c r="O3" t="s">
+        <v>53</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="n">
+        <v>5</v>
+      </c>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>4</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>4769</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K4" t="s">
+        <v>64</v>
+      </c>
+      <c r="L4" t="s">
+        <v>65</v>
+      </c>
+      <c r="M4" t="n">
+        <v>4</v>
+      </c>
+      <c r="N4" t="s">
+        <v>66</v>
+      </c>
+      <c r="O4" t="s">
+        <v>67</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="n">
+        <v>4</v>
+      </c>
+      <c r="R4" t="s"/>
+      <c r="S4" t="n">
+        <v>4</v>
+      </c>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>4</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4769</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>69</v>
+      </c>
+      <c r="J5" t="s">
+        <v>70</v>
+      </c>
+      <c r="K5" t="s">
+        <v>71</v>
+      </c>
+      <c r="L5" t="s">
+        <v>72</v>
+      </c>
+      <c r="M5" t="n">
+        <v>3</v>
+      </c>
+      <c r="N5" t="s">
+        <v>73</v>
+      </c>
+      <c r="O5" t="s">
+        <v>53</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>4769</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>74</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>75</v>
+      </c>
+      <c r="J6" t="s">
+        <v>76</v>
+      </c>
+      <c r="K6" t="s">
+        <v>77</v>
+      </c>
+      <c r="L6" t="s">
+        <v>78</v>
+      </c>
+      <c r="M6" t="n">
+        <v>4</v>
+      </c>
+      <c r="N6" t="s"/>
+      <c r="O6" t="s"/>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>4769</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>79</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>80</v>
+      </c>
+      <c r="J7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K7" t="s">
+        <v>82</v>
+      </c>
+      <c r="L7" t="s">
+        <v>83</v>
+      </c>
+      <c r="M7" t="n">
+        <v>3</v>
+      </c>
+      <c r="N7" t="s">
+        <v>84</v>
+      </c>
+      <c r="O7" t="s">
+        <v>85</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="n">
+        <v>3</v>
+      </c>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>4</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>4769</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>86</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>87</v>
+      </c>
+      <c r="J8" t="s">
+        <v>88</v>
+      </c>
+      <c r="K8" t="s">
+        <v>89</v>
+      </c>
+      <c r="L8" t="s">
+        <v>90</v>
+      </c>
+      <c r="M8" t="n">
+        <v>3</v>
+      </c>
+      <c r="N8" t="s">
+        <v>91</v>
+      </c>
+      <c r="O8" t="s">
+        <v>92</v>
+      </c>
+      <c r="P8" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>5</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>4769</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>93</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>94</v>
+      </c>
+      <c r="J9" t="s">
+        <v>95</v>
+      </c>
+      <c r="K9" t="s">
+        <v>96</v>
+      </c>
+      <c r="L9" t="s">
+        <v>97</v>
+      </c>
+      <c r="M9" t="n">
+        <v>4</v>
+      </c>
+      <c r="N9" t="s">
+        <v>98</v>
+      </c>
+      <c r="O9" t="s">
+        <v>92</v>
+      </c>
+      <c r="P9" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>4</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>4769</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>100</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>101</v>
+      </c>
+      <c r="J10" t="s">
+        <v>102</v>
+      </c>
+      <c r="K10" t="s">
+        <v>103</v>
+      </c>
+      <c r="L10" t="s">
+        <v>104</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
+        <v>98</v>
+      </c>
+      <c r="O10" t="s">
+        <v>67</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="s"/>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>4769</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>105</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>106</v>
+      </c>
+      <c r="J11" t="s">
+        <v>107</v>
+      </c>
+      <c r="K11" t="s">
+        <v>108</v>
+      </c>
+      <c r="L11" t="s">
+        <v>109</v>
+      </c>
+      <c r="M11" t="n">
+        <v>3</v>
+      </c>
+      <c r="N11" t="s">
+        <v>110</v>
+      </c>
+      <c r="O11" t="s">
+        <v>92</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="n">
+        <v>2</v>
+      </c>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>4</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>4769</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>112</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>113</v>
+      </c>
+      <c r="J12" t="s">
+        <v>114</v>
+      </c>
+      <c r="K12" t="s">
+        <v>115</v>
+      </c>
+      <c r="L12" t="s">
+        <v>116</v>
+      </c>
+      <c r="M12" t="n">
+        <v>3</v>
+      </c>
+      <c r="N12" t="s">
+        <v>110</v>
+      </c>
+      <c r="O12" t="s">
+        <v>67</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="n">
+        <v>5</v>
+      </c>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>3</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>4769</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>117</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>118</v>
+      </c>
+      <c r="J13" t="s">
+        <v>119</v>
+      </c>
+      <c r="K13" t="s">
+        <v>120</v>
+      </c>
+      <c r="L13" t="s">
+        <v>121</v>
+      </c>
+      <c r="M13" t="n">
+        <v>3</v>
+      </c>
+      <c r="N13" t="s">
+        <v>122</v>
+      </c>
+      <c r="O13" t="s">
+        <v>85</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="s"/>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>4769</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>123</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>124</v>
+      </c>
+      <c r="J14" t="s">
+        <v>125</v>
+      </c>
+      <c r="K14" t="s">
+        <v>126</v>
+      </c>
+      <c r="L14" t="s">
+        <v>127</v>
+      </c>
+      <c r="M14" t="n">
+        <v>3</v>
+      </c>
+      <c r="N14" t="s">
+        <v>128</v>
+      </c>
+      <c r="O14" t="s">
+        <v>129</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="n">
+        <v>4</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>5</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>4769</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>130</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>131</v>
+      </c>
+      <c r="J15" t="s">
+        <v>132</v>
+      </c>
+      <c r="K15" t="s">
+        <v>133</v>
+      </c>
+      <c r="L15" t="s">
+        <v>134</v>
+      </c>
+      <c r="M15" t="n">
+        <v>4</v>
+      </c>
+      <c r="N15" t="s">
+        <v>128</v>
+      </c>
+      <c r="O15" t="s">
+        <v>129</v>
+      </c>
+      <c r="P15" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="n">
+        <v>5</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>5</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>4769</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>135</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>136</v>
+      </c>
+      <c r="J16" t="s">
+        <v>137</v>
+      </c>
+      <c r="K16" t="s">
+        <v>138</v>
+      </c>
+      <c r="L16" t="s">
+        <v>139</v>
+      </c>
+      <c r="M16" t="n">
+        <v>4</v>
+      </c>
+      <c r="N16" t="s">
+        <v>140</v>
+      </c>
+      <c r="O16" t="s">
+        <v>92</v>
+      </c>
+      <c r="P16" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>4</v>
+      </c>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>5</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>4769</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>141</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>142</v>
+      </c>
+      <c r="J17" t="s">
+        <v>143</v>
+      </c>
+      <c r="K17" t="s">
+        <v>144</v>
+      </c>
+      <c r="L17" t="s">
+        <v>145</v>
+      </c>
+      <c r="M17" t="n">
+        <v>4</v>
+      </c>
+      <c r="N17" t="s">
+        <v>146</v>
+      </c>
+      <c r="O17" t="s">
+        <v>53</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="s"/>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>4769</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>147</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>148</v>
+      </c>
+      <c r="J18" t="s">
+        <v>149</v>
+      </c>
+      <c r="K18" t="s">
+        <v>150</v>
+      </c>
+      <c r="L18" t="s">
+        <v>151</v>
+      </c>
+      <c r="M18" t="n">
+        <v>2</v>
+      </c>
+      <c r="N18" t="s">
+        <v>152</v>
+      </c>
+      <c r="O18" t="s">
+        <v>67</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="n">
+        <v>1</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>4</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>4769</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>153</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>154</v>
+      </c>
+      <c r="J19" t="s">
+        <v>155</v>
+      </c>
+      <c r="K19" t="s">
+        <v>156</v>
+      </c>
+      <c r="L19" t="s">
+        <v>157</v>
+      </c>
+      <c r="M19" t="n">
+        <v>3</v>
+      </c>
+      <c r="N19" t="s">
+        <v>158</v>
+      </c>
+      <c r="O19" t="s">
+        <v>53</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="n">
+        <v>3</v>
+      </c>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>4</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>4769</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>159</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>160</v>
+      </c>
+      <c r="J20" t="s">
+        <v>161</v>
+      </c>
+      <c r="K20" t="s">
+        <v>162</v>
+      </c>
+      <c r="L20" t="s">
+        <v>163</v>
+      </c>
+      <c r="M20" t="n">
+        <v>3</v>
+      </c>
+      <c r="N20" t="s">
+        <v>164</v>
+      </c>
+      <c r="O20" t="s">
+        <v>85</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="n">
+        <v>2</v>
+      </c>
+      <c r="R20" t="n">
+        <v>5</v>
+      </c>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>4</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>4769</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>165</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>166</v>
+      </c>
+      <c r="J21" t="s">
+        <v>167</v>
+      </c>
+      <c r="K21" t="s">
+        <v>168</v>
+      </c>
+      <c r="L21" t="s">
+        <v>169</v>
+      </c>
+      <c r="M21" t="n">
+        <v>4</v>
+      </c>
+      <c r="N21" t="s">
+        <v>164</v>
+      </c>
+      <c r="O21" t="s">
+        <v>85</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="s"/>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>4769</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>170</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>171</v>
+      </c>
+      <c r="J22" t="s">
+        <v>172</v>
+      </c>
+      <c r="K22" t="s">
+        <v>173</v>
+      </c>
+      <c r="L22" t="s">
+        <v>174</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s">
+        <v>175</v>
+      </c>
+      <c r="O22" t="s">
+        <v>85</v>
+      </c>
+      <c r="P22" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="n">
+        <v>5</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>5</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>4769</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>176</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>177</v>
+      </c>
+      <c r="J23" t="s">
+        <v>178</v>
+      </c>
+      <c r="K23" t="s">
+        <v>179</v>
+      </c>
+      <c r="L23" t="s">
+        <v>180</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1</v>
+      </c>
+      <c r="N23" t="s">
+        <v>181</v>
+      </c>
+      <c r="O23" t="s">
+        <v>129</v>
+      </c>
+      <c r="P23" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>2</v>
+      </c>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>5</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>4769</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>183</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>184</v>
+      </c>
+      <c r="J24" t="s">
+        <v>185</v>
+      </c>
+      <c r="K24" t="s">
+        <v>186</v>
+      </c>
+      <c r="L24" t="s">
+        <v>187</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
+        <v>181</v>
+      </c>
+      <c r="O24" t="s">
+        <v>129</v>
+      </c>
+      <c r="P24" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>5</v>
+      </c>
+      <c r="R24" t="n">
+        <v>5</v>
+      </c>
+      <c r="S24" t="n">
+        <v>5</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>5</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>4769</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>189</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>190</v>
+      </c>
+      <c r="J25" t="s">
+        <v>191</v>
+      </c>
+      <c r="K25" t="s">
+        <v>192</v>
+      </c>
+      <c r="L25" t="s">
+        <v>193</v>
+      </c>
+      <c r="M25" t="n">
+        <v>5</v>
+      </c>
+      <c r="N25" t="s">
+        <v>194</v>
+      </c>
+      <c r="O25" t="s">
+        <v>67</v>
+      </c>
+      <c r="P25" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>4</v>
+      </c>
+      <c r="R25" t="n">
+        <v>5</v>
+      </c>
+      <c r="S25" t="n">
+        <v>5</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>5</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>4769</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>196</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>197</v>
+      </c>
+      <c r="J26" t="s">
+        <v>198</v>
+      </c>
+      <c r="K26" t="s">
+        <v>199</v>
+      </c>
+      <c r="L26" t="s">
+        <v>200</v>
+      </c>
+      <c r="M26" t="n">
+        <v>3</v>
+      </c>
+      <c r="N26" t="s"/>
+      <c r="O26" t="s"/>
+      <c r="P26" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>2</v>
+      </c>
+      <c r="R26" t="n">
+        <v>3</v>
+      </c>
+      <c r="S26" t="n">
+        <v>2</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>3</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>4769</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>201</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>202</v>
+      </c>
+      <c r="J27" t="s">
+        <v>203</v>
+      </c>
+      <c r="K27" t="s">
+        <v>204</v>
+      </c>
+      <c r="L27" t="s">
+        <v>205</v>
+      </c>
+      <c r="M27" t="n">
+        <v>4</v>
+      </c>
+      <c r="N27" t="s">
+        <v>206</v>
+      </c>
+      <c r="O27" t="s">
+        <v>85</v>
+      </c>
+      <c r="P27" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>4</v>
+      </c>
+      <c r="R27" t="n">
+        <v>5</v>
+      </c>
+      <c r="S27" t="n">
+        <v>5</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>4</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>4769</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>207</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>208</v>
+      </c>
+      <c r="J28" t="s">
+        <v>209</v>
+      </c>
+      <c r="K28" t="s">
+        <v>210</v>
+      </c>
+      <c r="L28" t="s">
+        <v>211</v>
+      </c>
+      <c r="M28" t="n">
+        <v>3</v>
+      </c>
+      <c r="N28" t="s"/>
+      <c r="O28" t="s"/>
+      <c r="P28" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>3</v>
+      </c>
+      <c r="R28" t="n">
+        <v>4</v>
+      </c>
+      <c r="S28" t="n">
+        <v>3</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>3</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>4769</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>212</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>213</v>
+      </c>
+      <c r="J29" t="s">
+        <v>214</v>
+      </c>
+      <c r="K29" t="s">
+        <v>215</v>
+      </c>
+      <c r="L29" t="s">
+        <v>216</v>
+      </c>
+      <c r="M29" t="n">
+        <v>3</v>
+      </c>
+      <c r="N29" t="s">
+        <v>217</v>
+      </c>
+      <c r="O29" t="s">
+        <v>129</v>
+      </c>
+      <c r="P29" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>3</v>
+      </c>
+      <c r="R29" t="n">
+        <v>5</v>
+      </c>
+      <c r="S29" t="n">
+        <v>5</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>4</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>4769</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>218</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>219</v>
+      </c>
+      <c r="J30" t="s">
+        <v>220</v>
+      </c>
+      <c r="K30" t="s">
+        <v>221</v>
+      </c>
+      <c r="L30" t="s">
+        <v>222</v>
+      </c>
+      <c r="M30" t="n">
+        <v>4</v>
+      </c>
+      <c r="N30" t="s">
+        <v>223</v>
+      </c>
+      <c r="O30" t="s">
+        <v>92</v>
+      </c>
+      <c r="P30" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>3</v>
+      </c>
+      <c r="R30" t="n">
+        <v>5</v>
+      </c>
+      <c r="S30" t="n">
+        <v>4</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>5</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>4769</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>224</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>225</v>
+      </c>
+      <c r="J31" t="s">
+        <v>226</v>
+      </c>
+      <c r="K31" t="s">
+        <v>227</v>
+      </c>
+      <c r="L31" t="s">
+        <v>228</v>
+      </c>
+      <c r="M31" t="n">
+        <v>3</v>
+      </c>
+      <c r="N31" t="s"/>
+      <c r="O31" t="s"/>
+      <c r="P31" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>3</v>
+      </c>
+      <c r="R31" t="n">
+        <v>3</v>
+      </c>
+      <c r="S31" t="n">
+        <v>3</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>3</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>4769</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>230</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>231</v>
+      </c>
+      <c r="J32" t="s">
+        <v>232</v>
+      </c>
+      <c r="K32" t="s">
+        <v>233</v>
+      </c>
+      <c r="L32" t="s">
+        <v>234</v>
+      </c>
+      <c r="M32" t="n">
+        <v>2</v>
+      </c>
+      <c r="N32" t="s">
+        <v>235</v>
+      </c>
+      <c r="O32" t="s">
+        <v>85</v>
+      </c>
+      <c r="P32" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>2</v>
+      </c>
+      <c r="R32" t="n">
+        <v>4</v>
+      </c>
+      <c r="S32" t="n">
+        <v>2</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>3</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>4769</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>237</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>238</v>
+      </c>
+      <c r="J33" t="s">
+        <v>239</v>
+      </c>
+      <c r="K33" t="s">
+        <v>240</v>
+      </c>
+      <c r="L33" t="s">
+        <v>241</v>
+      </c>
+      <c r="M33" t="n">
+        <v>3</v>
+      </c>
+      <c r="N33" t="s">
+        <v>242</v>
+      </c>
+      <c r="O33" t="s">
+        <v>67</v>
+      </c>
+      <c r="P33" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>3</v>
+      </c>
+      <c r="R33" t="n">
+        <v>4</v>
+      </c>
+      <c r="S33" t="n">
+        <v>4</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>4</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>4769</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>243</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>244</v>
+      </c>
+      <c r="J34" t="s">
+        <v>245</v>
+      </c>
+      <c r="K34" t="s">
+        <v>246</v>
+      </c>
+      <c r="L34" t="s">
+        <v>247</v>
+      </c>
+      <c r="M34" t="n">
+        <v>2</v>
+      </c>
+      <c r="N34" t="s">
+        <v>248</v>
+      </c>
+      <c r="O34" t="s">
+        <v>67</v>
+      </c>
+      <c r="P34" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>2</v>
+      </c>
+      <c r="R34" t="n">
+        <v>3</v>
+      </c>
+      <c r="S34" t="n">
+        <v>2</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>3</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>4769</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>249</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>250</v>
+      </c>
+      <c r="J35" t="s">
+        <v>251</v>
+      </c>
+      <c r="K35" t="s">
+        <v>252</v>
+      </c>
+      <c r="L35" t="s">
+        <v>253</v>
+      </c>
+      <c r="M35" t="n">
+        <v>1</v>
+      </c>
+      <c r="N35" t="s"/>
+      <c r="O35" t="s"/>
+      <c r="P35" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>1</v>
+      </c>
+      <c r="R35" t="n">
+        <v>1</v>
+      </c>
+      <c r="S35" t="n">
+        <v>1</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>1</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>4769</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>254</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>255</v>
+      </c>
+      <c r="J36" t="s">
+        <v>256</v>
+      </c>
+      <c r="K36" t="s">
+        <v>257</v>
+      </c>
+      <c r="L36" t="s">
+        <v>258</v>
+      </c>
+      <c r="M36" t="n">
+        <v>3</v>
+      </c>
+      <c r="N36" t="s">
+        <v>259</v>
+      </c>
+      <c r="O36" t="s">
+        <v>129</v>
+      </c>
+      <c r="P36" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>3</v>
+      </c>
+      <c r="R36" t="n">
+        <v>3</v>
+      </c>
+      <c r="S36" t="n">
+        <v>3</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>3</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>4769</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>261</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>262</v>
+      </c>
+      <c r="J37" t="s">
+        <v>263</v>
+      </c>
+      <c r="K37" t="s">
+        <v>264</v>
+      </c>
+      <c r="L37" t="s">
+        <v>265</v>
+      </c>
+      <c r="M37" t="n">
+        <v>3</v>
+      </c>
+      <c r="N37" t="s">
+        <v>266</v>
+      </c>
+      <c r="O37" t="s">
+        <v>67</v>
+      </c>
+      <c r="P37" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>3</v>
+      </c>
+      <c r="R37" t="n">
+        <v>4</v>
+      </c>
+      <c r="S37" t="n">
+        <v>4</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>3</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>4769</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>268</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>269</v>
+      </c>
+      <c r="J38" t="s">
+        <v>270</v>
+      </c>
+      <c r="K38" t="s">
+        <v>271</v>
+      </c>
+      <c r="L38" t="s">
+        <v>272</v>
+      </c>
+      <c r="M38" t="n">
+        <v>5</v>
+      </c>
+      <c r="N38" t="s">
+        <v>273</v>
+      </c>
+      <c r="O38" t="s">
+        <v>85</v>
+      </c>
+      <c r="P38" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>4</v>
+      </c>
+      <c r="R38" t="n">
+        <v>5</v>
+      </c>
+      <c r="S38" t="n">
+        <v>4</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>3</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>4769</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>274</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>275</v>
+      </c>
+      <c r="J39" t="s">
+        <v>276</v>
+      </c>
+      <c r="K39" t="s">
+        <v>277</v>
+      </c>
+      <c r="L39" t="s">
+        <v>278</v>
+      </c>
+      <c r="M39" t="n">
+        <v>1</v>
+      </c>
+      <c r="N39" t="s"/>
+      <c r="O39" t="s"/>
+      <c r="P39" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>1</v>
+      </c>
+      <c r="R39" t="s"/>
+      <c r="S39" t="n">
+        <v>1</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>1</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s">
+        <v>279</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_681.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_681.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="318">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>Andy R</t>
+  </si>
+  <si>
     <t>07/10/2018</t>
   </si>
   <si>
@@ -183,6 +186,9 @@
     <t>One of the least expensive places in Glendale and an excellent location. Within walking distance of the mall and so many restaurants. They have a nice pool and break room with a microwave. Have stayed here for 5 nights 3 different times and despite being on a busy street, it is very quiet &amp; beds very comfortable. Have a small fridge in rooms. Our only complaint is the remote worked for the tv except the on/off button and parking is nearly always full but we've always managed to find a spot. There never seems to be a vacancy so make sure you book in advance. They only charge $10 a night for a full size rollaway so even a better deal for a party of 3 (or 2 couples and another party).More</t>
   </si>
   <si>
+    <t>dem107</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d77110-r567370808-Rodeway_Inn_Regalodge-Glendale_California.html</t>
   </si>
   <si>
@@ -201,6 +207,9 @@
     <t>February 2018</t>
   </si>
   <si>
+    <t>Dreamldcouk</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d77110-r548284363-Rodeway_Inn_Regalodge-Glendale_California.html</t>
   </si>
   <si>
@@ -222,6 +231,9 @@
     <t xml:space="preserve"> traveled as a couple</t>
   </si>
   <si>
+    <t>Araceli C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d77110-r477816582-Rodeway_Inn_Regalodge-Glendale_California.html</t>
   </si>
   <si>
@@ -240,6 +252,9 @@
     <t>March 2017</t>
   </si>
   <si>
+    <t>RJK2258</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d77110-r475398260-Rodeway_Inn_Regalodge-Glendale_California.html</t>
   </si>
   <si>
@@ -255,6 +270,9 @@
     <t xml:space="preserve">Not a bad hotel for the dollar pool wasn't open at the time great location you can walk to everything  need a blow dryer just ask the desk nice restaurant next door foxys 10% off with keycard parking wasn't a problem </t>
   </si>
   <si>
+    <t>Berentrippers</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d77110-r449362734-Rodeway_Inn_Regalodge-Glendale_California.html</t>
   </si>
   <si>
@@ -276,6 +294,9 @@
     <t xml:space="preserve"> traveled with family</t>
   </si>
   <si>
+    <t>glac99</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d77110-r438030360-Rodeway_Inn_Regalodge-Glendale_California.html</t>
   </si>
   <si>
@@ -297,6 +318,9 @@
     <t xml:space="preserve"> traveled solo</t>
   </si>
   <si>
+    <t>zinngara</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d77110-r427893640-Rodeway_Inn_Regalodge-Glendale_California.html</t>
   </si>
   <si>
@@ -318,6 +342,9 @@
     <t>It's just over an hour from LAX. If you don't have a car, you can get there purchasing a return ride with Super Shuttle (cheaper option than a taxi), book it online so you can get a little discount. Just keep in mind the traffic when you need to return to the airport with the shuttle. In this instance is best to add 2 of hours of driving time plus the usual 2 or 3hours in advance you need for flight.The location is the best thing if you're like shopping and looking for a safe area to stay in LA to walk around, this is it. The motel is right in front of the mall and a walking distance from restaurants, other luxury brand stores and a cinema if you fancy a movie at night.The room was clean and staff were good. They went the extra mile keeping my luggage for few hours without charging me a thing after check out. I will definitely stay there again.More</t>
   </si>
   <si>
+    <t>aleal13</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d77110-r420006125-Rodeway_Inn_Regalodge-Glendale_California.html</t>
   </si>
   <si>
@@ -331,6 +358,9 @@
   </si>
   <si>
     <t xml:space="preserve">A simple place but the location is amazing. A great place to leave your car and just go walking to the Galeria mall and at night you have Americana to enjoy a dinner with your date there are so many options. </t>
+  </si>
+  <si>
+    <t>Missouri2Mexico</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d77110-r411219411-Rodeway_Inn_Regalodge-Glendale_California.html</t>
@@ -358,6 +388,9 @@
 Location:  As stated above, this property is right across from the Glendale Galleria, so there’s endless shopping and food options right across the street in walking distance.  It’s a nice setup, though the busy street out front can make getting in/out of the...Nestled along busting Colorado Blvd and across from the Glendale Galleria, this tiny old 30-room motel looks a bit out of place.  But that might not be a bad thing.  If you’re looking for a very reasonably priced room in a nice area, this property might be a good fit.  I had a pretty hit-and-miss experience here, which I’ll detail for you below:Arrival/Check In:  This is a very small property crammed on a tiny lot in a heavily-developed area.  As a result, the street out front is super-busy and the parking lot is very tight.  There actually are fewer parking spaces than rooms, but the hotel has solved this issue by allowing guests to use the parking lot at the restaurant next door if it fills up.  This seemed to happen every night around 6-7:00 pm, but was never an issue for me.  For an economy property, the grounds were in pretty nice condition.  Everything outside was well-kept and clean.  The woman who checked me in was extremely friendly and offered some dining suggestions in walking distance.  While the hotel does not serve breakfast, they offer a 10% discount at the (very good) restaurant next door.Location:  As stated above, this property is right across from the Glendale Galleria, so there’s endless shopping and food options right across the street in walking distance.  It’s a nice setup, though the busy street out front can make getting in/out of the parking lot a challenge sometimes.Room:  A little below average.  It was pretty run down and dated, even for an economy hotel.  The carpet is well-worn and has many old stains, there were lots of scratches and even some small holes in the walls, the light switches in the bathroom were falling apart, the finish on the bathtub was coming off… you get the idea.  Nothing crazy, but enough to make you question if you should have paid a bit more to stay at the property next door.  The bed was actually pretty comfortable despite the dated bed linens.  More important than anything else, the room was very clean.  I didn’t find any real issues related to cleanliness at the whole property.So, would I do it again?  Maybe, but only if I got a really good deal again.  If you stay here, you’ll get a clean room and a decent bed.  But that’s it.  Some basic maintenance and some new bed linens would go a really long way in making this property more pleasant.  It’s doable, but it’s certainly not for everyone.More</t>
   </si>
   <si>
+    <t>Richard C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d77110-r403902827-Rodeway_Inn_Regalodge-Glendale_California.html</t>
   </si>
   <si>
@@ -373,6 +406,9 @@
     <t>We have stated here several times. it is a good deal, OK place, clean and well kept, but nothing fancy. Right in the middle of things, easy to get around North LA area Many good places to eat, etc, Across the street from Glendale Galleria Mall.</t>
   </si>
   <si>
+    <t>Rei S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d77110-r394345307-Rodeway_Inn_Regalodge-Glendale_California.html</t>
   </si>
   <si>
@@ -391,6 +427,9 @@
     <t>July 2016</t>
   </si>
   <si>
+    <t>Freddie S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d77110-r365665427-Rodeway_Inn_Regalodge-Glendale_California.html</t>
   </si>
   <si>
@@ -412,6 +451,9 @@
     <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
+    <t>EwaMajid Z</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d77110-r363133649-Rodeway_Inn_Regalodge-Glendale_California.html</t>
   </si>
   <si>
@@ -427,6 +469,9 @@
     <t>I traveled for Evolving Out Loud event held at Alex Theater and this was my best bet. I'm glad I stayed here because last time I stayed at Glen Capri and the customer service was terrible! Here at Rodeway Inn the staff was super-nice and helpful. I love 'Don't worry!' attitude. Thank You, Reeta and everyone! I will stay here again in August! oxoxo</t>
   </si>
   <si>
+    <t>Paul H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d77110-r328371048-Rodeway_Inn_Regalodge-Glendale_California.html</t>
   </si>
   <si>
@@ -445,6 +490,9 @@
     <t>November 2015</t>
   </si>
   <si>
+    <t>Krisztina K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d77110-r311215911-Rodeway_Inn_Regalodge-Glendale_California.html</t>
   </si>
   <si>
@@ -463,6 +511,9 @@
     <t>September 2015</t>
   </si>
   <si>
+    <t>VegasPat44</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d77110-r295754703-Rodeway_Inn_Regalodge-Glendale_California.html</t>
   </si>
   <si>
@@ -481,6 +532,9 @@
     <t>August 2015</t>
   </si>
   <si>
+    <t>Balaji R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d77110-r284854318-Rodeway_Inn_Regalodge-Glendale_California.html</t>
   </si>
   <si>
@@ -499,6 +553,9 @@
     <t>June 2015</t>
   </si>
   <si>
+    <t>AFamilyGuy_1</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d77110-r260051060-Rodeway_Inn_Regalodge-Glendale_California.html</t>
   </si>
   <si>
@@ -517,6 +574,9 @@
     <t>March 2015</t>
   </si>
   <si>
+    <t>fambam949</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d77110-r258695972-Rodeway_Inn_Regalodge-Glendale_California.html</t>
   </si>
   <si>
@@ -532,6 +592,9 @@
     <t>Big room, nice bathroom, and nice staff. Near to Americana mall,restaurant, to my church. Busy place but not loud in the room. You can relax in the nice room in the good price. Definitely I will come back again.</t>
   </si>
   <si>
+    <t>Laurie P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d77110-r253978780-Rodeway_Inn_Regalodge-Glendale_California.html</t>
   </si>
   <si>
@@ -550,6 +613,9 @@
     <t>February 2015</t>
   </si>
   <si>
+    <t>B D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d77110-r215063835-Rodeway_Inn_Regalodge-Glendale_California.html</t>
   </si>
   <si>
@@ -571,6 +637,9 @@
     <t>I had a bad experience with this property last year and said I would never stay at the property again. Well I thought I would give them a second chance. Never again...First things first. I booked a month in advance with the property's website. I specifically checked the non-smoking room box. I get to the property and they have one room left and its a smoking room. The front desk staff would not work with me on this at all. I even had a confirmation e-mail I printed out with the non-smoking preference referenced on the confirmation. I have never smoked in my life.Then I could not get on any of 3 wireless routers they had. I call the front desk and they say, "you are the only one complaining". I explained I was in IT and did IT work everyday. Then they changed their attitude. I finally had to use a hardwired connection in the room. The alarm clock in broken in the room. The air conditioning up down control button for temperature were broken/pushed into the unit, worthless. There is not enough parking for all guests, lot too small.The one exception is the cleaning staff is wonderful. They always do a good job, are nice and always say hi. I strongly recommend you never stay at this property ever.More</t>
   </si>
   <si>
+    <t>BeoPlani</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d77110-r210072434-Rodeway_Inn_Regalodge-Glendale_California.html</t>
   </si>
   <si>
@@ -589,6 +658,9 @@
     <t>All the basics were perfect.  The room was indeed a non-smoking room.  The AC was cold, as was the mini fridge.  The bed was comfortable and the shower was hot and powerful.  Plus everything was clean, clean, clean.  My wife had an important interview, but she forgot her hair dryer.  Rita (manager) found a hair dryer (at 5AM!).  We had prepaid for three nights, but needed to leave after two, but David (manager) was very courteous and credited back the nights charge promptly.  The location is safe, next door to a good restaurant (Foxy's) and with the Americana and Galleria malls just across the street.   For the price, you cannot beat the Regalodge on Colorado.More</t>
   </si>
   <si>
+    <t>forefrnite</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d77110-r208427859-Rodeway_Inn_Regalodge-Glendale_California.html</t>
   </si>
   <si>
@@ -610,6 +682,9 @@
     <t>If you are traveling to the L.A. /Hollywood /Universal Studios area, this is the best deal going. It is a no frills room with a comfy bed. Has a small table with two chairs, a decent refer and a bath/shower combo. It is located right next door to a restrauant (foxyies) and just across the street from two different malls.  Lots of shopping and food within walking distance and even a micro brew (BJ's) about 5 mins walk away. The pool is very clean and the hotel is an older place, but well kept up and very clean. You could pay almost twice as much just a couple of doors away at a hotel that has a "free" breakfast, but we were able to save money by buying our own breakfast out. Parking is ample and easy to get into and out of and it has free wifi, but it is very slow. The rooms are quiet, we could not hear any tv's at night from the other guests, but you could hear some footfalls in the room above. This is a safe area to walk around at night and there is security at the malls. Foxies will give you a 10% discount by showing them a room key.More</t>
   </si>
   <si>
+    <t>lgayala</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d77110-r174055022-Rodeway_Inn_Regalodge-Glendale_California.html</t>
   </si>
   <si>
@@ -625,6 +700,9 @@
     <t xml:space="preserve">spent two nights..  service was good,  male manager  roams around and kinda creeps  you out a little as if your going something you shouldn't.  Coffee was a joke.  Bathroom ( shower head was to hard) ( shower drain was clogged).  fridge was dirty but worked. </t>
   </si>
   <si>
+    <t>ConnieK331</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d77110-r172153066-Rodeway_Inn_Regalodge-Glendale_California.html</t>
   </si>
   <si>
@@ -643,6 +721,9 @@
     <t>July 2013</t>
   </si>
   <si>
+    <t>OscarS91</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d77110-r165626543-Rodeway_Inn_Regalodge-Glendale_California.html</t>
   </si>
   <si>
@@ -658,6 +739,9 @@
     <t>Nothing special about this place; the rooms are all pretty basic standard motel rooms except that they come with a flat screen tv. It's in a great location right across the Glendale Galleria. Overall, great value for the price and location and a perfectly suitable place to lay your head after a long day or two of being out and about in LA or Glendale.</t>
   </si>
   <si>
+    <t>MTBTrails</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d77110-r152383699-Rodeway_Inn_Regalodge-Glendale_California.html</t>
   </si>
   <si>
@@ -676,6 +760,9 @@
     <t>February 2013</t>
   </si>
   <si>
+    <t>Veela55</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d77110-r150552269-Rodeway_Inn_Regalodge-Glendale_California.html</t>
   </si>
   <si>
@@ -694,6 +781,9 @@
     <t>January 2013</t>
   </si>
   <si>
+    <t>Minivanhighway</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d77110-r147322135-Rodeway_Inn_Regalodge-Glendale_California.html</t>
   </si>
   <si>
@@ -712,6 +802,9 @@
     <t>Some of the initial reviews on this hotel made me a little weary but it was in my budget and I didn't get the impression that it was in a sketchy neighborhood so I went for it.My and my party arrived very late but my rooms were still held. Check in was quick and we got our rooms no hassle. They even had the rollaway bed already in one of the rooms like I requested and that doesn't happen too oftenThe downsides...the really small parking lot. We were towing a trailer so our choices were to park in a nearby lot or on one of the residential streets.The shower was kinda crazy and only sprayed one solid high pressure stream without much coverage so I was like showering with a garden hose. The fan in the bathroom was really annoyingly loud and probably didn't work like it was supposed to. Overall my stay was fine. A basic hotel if you're just looking for a place to crashMore</t>
   </si>
   <si>
+    <t>liltippers82</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d77110-r136099428-Rodeway_Inn_Regalodge-Glendale_California.html</t>
   </si>
   <si>
@@ -733,6 +826,9 @@
     <t>Nice, quiet stay. Very small hotel. Had a refrigerator, but no microwave. There is a microwave for use in the coffee room, but it is only open in the mornings. Pretty old rooms, bathroom had cracked tiles and tub stopped up. There were ants all over the bathroom! I don't know where they were coming from, but I assume the vent in the ceiling. I could see straight through it. Linens seemed clean, but were very cheap. I wasn't expecting much, but it still could have been better. The pool looked very dirty. When we got there the ice machine was leaking all over the place. The management attempted to clean it up, but there was still puddles right in front of the stairs and it was slick as I almost fell.More</t>
   </si>
   <si>
+    <t>Geoff W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d77110-r132023404-Rodeway_Inn_Regalodge-Glendale_California.html</t>
   </si>
   <si>
@@ -751,6 +847,9 @@
     <t>February 2012</t>
   </si>
   <si>
+    <t>decibelk</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d77110-r122630450-Rodeway_Inn_Regalodge-Glendale_California.html</t>
   </si>
   <si>
@@ -769,6 +868,9 @@
     <t>March 2011</t>
   </si>
   <si>
+    <t>Jslasor</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d77110-r102180206-Rodeway_Inn_Regalodge-Glendale_California.html</t>
   </si>
   <si>
@@ -782,6 +884,9 @@
   </si>
   <si>
     <t>This motel is involved in a major bed bug lawsuit. I think that's all I really need to say.</t>
+  </si>
+  <si>
+    <t>LilMissTraveler</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d77110-r67760440-Rodeway_Inn_Regalodge-Glendale_California.html</t>
@@ -813,6 +918,9 @@
 The motel is right across the street from the Glendale Galleria, the Americana, next...I had an early meeting in Glendale Galleria so I decided to book a motel close by. The Rodeway Inn was the cheapest (about $60/night) and seemed decent/safe enough as I'm very familiar with the area. Whoever wrote that it is halfway decent pretty much hits the nail on the head. There's really NO reason to stay in Glendale if you're visiting L.A. unless you have a meeting close by. The Rodeway Inn is 100% no frills. There are no amenities, no fancy lobby, no mint on the pillow. It's simply a good-enough place to rest your head for a night or two. The room I booked was a king no-smoking and it was pretty big, bigger than I expected. There was enough room for a king bed and a desk/workstation, plus dresser drawers, a big closet area and a small-ish bathroom. The room was clean. The bed was fine though the pillows were pretty weak. There is an in-unit AC which I used the entire night. The bathroom is clean but the bathtub looks old and just a touch icky. The shower was very weak but it did its job and there was plentiful hot water. The parking is free but the spots are small. Also, there is free wireless Internet - just ask the front desk for the password. The Internet coverage was great.The motel is right across the street from the Glendale Galleria, the Americana, next to 7/11 and a host of other stores. It is definitely a bustling street and because the motel is right on Colorado Blvd., it is super loud. There is a lot of street noise. Plus, because there isn't a lobby or courtyard, you can hear the guests across the way if they are talking loudly. My neighbors were also pretty loud and I could hear them talking throughout the night so the walls are definitely thin.I didn't feel ripped off for $60/night but I probably wouldn't stay here again. The noise was a little difficult to deal with and there just wasn't anything about it that would make me want to go back. The lobby clerk was very nice though. If you have to be in the Glendale area and you're only staying for a night or two, this isn't a bad alternative.More</t>
   </si>
   <si>
+    <t>DurNacc</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d77110-r27068603-Rodeway_Inn_Regalodge-Glendale_California.html</t>
   </si>
   <si>
@@ -834,6 +942,9 @@
     <t>We arrived very late and only stayed one night. The front desk clerk was there at check in and check out. She was very nice, and informed me that I had to pay for the room at check in. The parking lot is VERY cramped. I was in a compact car and had trouble getting in and out of there. The room itself was OK. It seemed like this place has been there for a long time. The room was old, but clean. All the plumbing seemed to work fine, but the door to the bathroom would not stay closed. There is high speed internet, but not wireless, so only one computer at a time can utilize it. The bed was awful. Too firm and uncomfortable. There was no continental breakfast. Not even coffee in the front lobby.I booked this room through a website and got a discount. The discounted price was not worth the stay. Not even for one night. I felt a bit ripped off.You are walking distance from donuts, Yoshinoya, and across the street from the Glendale Galleria. A HUGE mall to serve all your spending needs. The hotel room is in a prime location, but not worth the price I paid, and certainly not worth more than $30.00 a night!More</t>
   </si>
   <si>
+    <t>dancemania21</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d77110-r6787496-Rodeway_Inn_Regalodge-Glendale_California.html</t>
   </si>
   <si>
@@ -850,6 +961,9 @@
   </si>
   <si>
     <t>February 2007</t>
+  </si>
+  <si>
+    <t>Meander1539</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d77110-r3533662-Rodeway_Inn_Regalodge-Glendale_California.html</t>
@@ -1372,43 +1486,47 @@
       <c r="A2" t="n">
         <v>4769</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>4</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="n">
@@ -1426,50 +1544,54 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>4769</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>56</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="J3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="L3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="M3" t="n">
         <v>4</v>
       </c>
       <c r="N3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="O3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="n">
@@ -1487,50 +1609,54 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>4769</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>63</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="J4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="K4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="L4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="M4" t="n">
         <v>4</v>
       </c>
       <c r="N4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="O4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="n">
@@ -1550,50 +1676,54 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>4769</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>71</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="J5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="K5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="L5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="M5" t="n">
         <v>3</v>
       </c>
       <c r="N5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="O5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -1607,41 +1737,45 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>4769</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>78</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="J6" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="K6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="L6" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="M6" t="n">
         <v>4</v>
@@ -1660,50 +1794,54 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>4769</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>84</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="J7" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="K7" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="L7" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="M7" t="n">
         <v>3</v>
       </c>
       <c r="N7" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="O7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="n">
@@ -1721,50 +1859,54 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>4769</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>92</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="J8" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="K8" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="L8" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="M8" t="n">
         <v>3</v>
       </c>
       <c r="N8" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="O8" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="P8" t="n">
         <v>3</v>
@@ -1782,50 +1924,54 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>4769</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>100</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="J9" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="K9" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="L9" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="M9" t="n">
         <v>4</v>
       </c>
       <c r="N9" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="O9" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="P9" t="n">
         <v>3</v>
@@ -1843,50 +1989,54 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>4769</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>108</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="J10" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="K10" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="L10" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="M10" t="n">
         <v>5</v>
       </c>
       <c r="N10" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="O10" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
@@ -1900,50 +2050,54 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>4769</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>114</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="J11" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="K11" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="L11" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="M11" t="n">
         <v>3</v>
       </c>
       <c r="N11" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="O11" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="n">
@@ -1961,50 +2115,54 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>4769</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>122</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="J12" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="K12" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="L12" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="M12" t="n">
         <v>3</v>
       </c>
       <c r="N12" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="O12" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
@@ -2022,50 +2180,54 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>4769</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>128</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="J13" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="K13" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="L13" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="M13" t="n">
         <v>3</v>
       </c>
       <c r="N13" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="O13" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
@@ -2079,50 +2241,54 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>4769</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>135</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="J14" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="K14" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="L14" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="M14" t="n">
         <v>3</v>
       </c>
       <c r="N14" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="O14" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
@@ -2140,50 +2306,54 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>4769</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>143</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="J15" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="K15" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="L15" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="M15" t="n">
         <v>4</v>
       </c>
       <c r="N15" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="O15" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="P15" t="n">
         <v>5</v>
@@ -2203,50 +2373,54 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>4769</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>149</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>136</v>
+        <v>151</v>
       </c>
       <c r="J16" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="K16" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="L16" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="M16" t="n">
         <v>4</v>
       </c>
       <c r="N16" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="O16" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="P16" t="n">
         <v>4</v>
@@ -2266,50 +2440,54 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>4769</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>156</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>141</v>
+        <v>157</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>142</v>
+        <v>158</v>
       </c>
       <c r="J17" t="s">
-        <v>143</v>
+        <v>159</v>
       </c>
       <c r="K17" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="L17" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
       <c r="M17" t="n">
         <v>4</v>
       </c>
       <c r="N17" t="s">
-        <v>146</v>
+        <v>162</v>
       </c>
       <c r="O17" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
@@ -2323,50 +2501,54 @@
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>4769</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>163</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>147</v>
+        <v>164</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>148</v>
+        <v>165</v>
       </c>
       <c r="J18" t="s">
-        <v>149</v>
+        <v>166</v>
       </c>
       <c r="K18" t="s">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="L18" t="s">
-        <v>151</v>
+        <v>168</v>
       </c>
       <c r="M18" t="n">
         <v>2</v>
       </c>
       <c r="N18" t="s">
-        <v>152</v>
+        <v>169</v>
       </c>
       <c r="O18" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
@@ -2384,50 +2566,54 @@
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>151</v>
+        <v>168</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>4769</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>170</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="J19" t="s">
-        <v>155</v>
+        <v>173</v>
       </c>
       <c r="K19" t="s">
-        <v>156</v>
+        <v>174</v>
       </c>
       <c r="L19" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
       <c r="M19" t="n">
         <v>3</v>
       </c>
       <c r="N19" t="s">
-        <v>158</v>
+        <v>176</v>
       </c>
       <c r="O19" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="n">
@@ -2445,50 +2631,54 @@
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>4769</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>177</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>159</v>
+        <v>178</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>160</v>
+        <v>179</v>
       </c>
       <c r="J20" t="s">
-        <v>161</v>
+        <v>180</v>
       </c>
       <c r="K20" t="s">
-        <v>162</v>
+        <v>181</v>
       </c>
       <c r="L20" t="s">
-        <v>163</v>
+        <v>182</v>
       </c>
       <c r="M20" t="n">
         <v>3</v>
       </c>
       <c r="N20" t="s">
-        <v>164</v>
+        <v>183</v>
       </c>
       <c r="O20" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="n">
@@ -2508,50 +2698,54 @@
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>163</v>
+        <v>182</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>4769</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>184</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>165</v>
+        <v>185</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>166</v>
+        <v>186</v>
       </c>
       <c r="J21" t="s">
-        <v>167</v>
+        <v>187</v>
       </c>
       <c r="K21" t="s">
-        <v>168</v>
+        <v>188</v>
       </c>
       <c r="L21" t="s">
-        <v>169</v>
+        <v>189</v>
       </c>
       <c r="M21" t="n">
         <v>4</v>
       </c>
       <c r="N21" t="s">
-        <v>164</v>
+        <v>183</v>
       </c>
       <c r="O21" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="P21" t="s"/>
       <c r="Q21" t="s"/>
@@ -2565,50 +2759,54 @@
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>169</v>
+        <v>189</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>4769</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>190</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>170</v>
+        <v>191</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>171</v>
+        <v>192</v>
       </c>
       <c r="J22" t="s">
-        <v>172</v>
+        <v>193</v>
       </c>
       <c r="K22" t="s">
-        <v>173</v>
+        <v>194</v>
       </c>
       <c r="L22" t="s">
-        <v>174</v>
+        <v>195</v>
       </c>
       <c r="M22" t="n">
         <v>5</v>
       </c>
       <c r="N22" t="s">
-        <v>175</v>
+        <v>196</v>
       </c>
       <c r="O22" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="P22" t="n">
         <v>5</v>
@@ -2628,50 +2826,54 @@
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>174</v>
+        <v>195</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>4769</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>197</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>176</v>
+        <v>198</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>177</v>
+        <v>199</v>
       </c>
       <c r="J23" t="s">
-        <v>178</v>
+        <v>200</v>
       </c>
       <c r="K23" t="s">
-        <v>179</v>
+        <v>201</v>
       </c>
       <c r="L23" t="s">
-        <v>180</v>
+        <v>202</v>
       </c>
       <c r="M23" t="n">
         <v>1</v>
       </c>
       <c r="N23" t="s">
-        <v>181</v>
+        <v>203</v>
       </c>
       <c r="O23" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="P23" t="n">
         <v>1</v>
@@ -2691,50 +2893,54 @@
       <c r="W23" t="s"/>
       <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>182</v>
+        <v>204</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>4769</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C24" t="s">
+        <v>205</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>183</v>
+        <v>206</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>184</v>
+        <v>207</v>
       </c>
       <c r="J24" t="s">
-        <v>185</v>
+        <v>208</v>
       </c>
       <c r="K24" t="s">
-        <v>186</v>
+        <v>209</v>
       </c>
       <c r="L24" t="s">
-        <v>187</v>
+        <v>210</v>
       </c>
       <c r="M24" t="n">
         <v>5</v>
       </c>
       <c r="N24" t="s">
-        <v>181</v>
+        <v>203</v>
       </c>
       <c r="O24" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="P24" t="n">
         <v>5</v>
@@ -2758,50 +2964,54 @@
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>188</v>
+        <v>211</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>4769</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>212</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>189</v>
+        <v>213</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>190</v>
+        <v>214</v>
       </c>
       <c r="J25" t="s">
-        <v>191</v>
+        <v>215</v>
       </c>
       <c r="K25" t="s">
-        <v>192</v>
+        <v>216</v>
       </c>
       <c r="L25" t="s">
-        <v>193</v>
+        <v>217</v>
       </c>
       <c r="M25" t="n">
         <v>5</v>
       </c>
       <c r="N25" t="s">
-        <v>194</v>
+        <v>218</v>
       </c>
       <c r="O25" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P25" t="n">
         <v>5</v>
@@ -2825,41 +3035,45 @@
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>195</v>
+        <v>219</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>4769</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C26" t="s">
+        <v>220</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>196</v>
+        <v>221</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>197</v>
+        <v>222</v>
       </c>
       <c r="J26" t="s">
-        <v>198</v>
+        <v>223</v>
       </c>
       <c r="K26" t="s">
-        <v>199</v>
+        <v>224</v>
       </c>
       <c r="L26" t="s">
-        <v>200</v>
+        <v>225</v>
       </c>
       <c r="M26" t="n">
         <v>3</v>
@@ -2888,50 +3102,54 @@
       <c r="W26" t="s"/>
       <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>200</v>
+        <v>225</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>4769</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C27" t="s">
+        <v>226</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>201</v>
+        <v>227</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>202</v>
+        <v>228</v>
       </c>
       <c r="J27" t="s">
-        <v>203</v>
+        <v>229</v>
       </c>
       <c r="K27" t="s">
-        <v>204</v>
+        <v>230</v>
       </c>
       <c r="L27" t="s">
-        <v>205</v>
+        <v>231</v>
       </c>
       <c r="M27" t="n">
         <v>4</v>
       </c>
       <c r="N27" t="s">
-        <v>206</v>
+        <v>232</v>
       </c>
       <c r="O27" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="P27" t="n">
         <v>5</v>
@@ -2955,41 +3173,45 @@
       <c r="W27" t="s"/>
       <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>205</v>
+        <v>231</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>4769</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C28" t="s">
+        <v>233</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>207</v>
+        <v>234</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>208</v>
+        <v>235</v>
       </c>
       <c r="J28" t="s">
-        <v>209</v>
+        <v>236</v>
       </c>
       <c r="K28" t="s">
-        <v>210</v>
+        <v>237</v>
       </c>
       <c r="L28" t="s">
-        <v>211</v>
+        <v>238</v>
       </c>
       <c r="M28" t="n">
         <v>3</v>
@@ -3018,50 +3240,54 @@
       <c r="W28" t="s"/>
       <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>211</v>
+        <v>238</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>4769</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>239</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>212</v>
+        <v>240</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>213</v>
+        <v>241</v>
       </c>
       <c r="J29" t="s">
-        <v>214</v>
+        <v>242</v>
       </c>
       <c r="K29" t="s">
-        <v>215</v>
+        <v>243</v>
       </c>
       <c r="L29" t="s">
-        <v>216</v>
+        <v>244</v>
       </c>
       <c r="M29" t="n">
         <v>3</v>
       </c>
       <c r="N29" t="s">
-        <v>217</v>
+        <v>245</v>
       </c>
       <c r="O29" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="P29" t="n">
         <v>5</v>
@@ -3085,50 +3311,54 @@
       <c r="W29" t="s"/>
       <c r="X29" t="s"/>
       <c r="Y29" t="s">
-        <v>216</v>
+        <v>244</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>4769</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C30" t="s">
+        <v>246</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>218</v>
+        <v>247</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>219</v>
+        <v>248</v>
       </c>
       <c r="J30" t="s">
-        <v>220</v>
+        <v>249</v>
       </c>
       <c r="K30" t="s">
-        <v>221</v>
+        <v>250</v>
       </c>
       <c r="L30" t="s">
-        <v>222</v>
+        <v>251</v>
       </c>
       <c r="M30" t="n">
         <v>4</v>
       </c>
       <c r="N30" t="s">
-        <v>223</v>
+        <v>252</v>
       </c>
       <c r="O30" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="P30" t="n">
         <v>5</v>
@@ -3152,41 +3382,45 @@
       <c r="W30" t="s"/>
       <c r="X30" t="s"/>
       <c r="Y30" t="s">
-        <v>222</v>
+        <v>251</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>4769</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C31" t="s">
+        <v>253</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>224</v>
+        <v>254</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>225</v>
+        <v>255</v>
       </c>
       <c r="J31" t="s">
-        <v>226</v>
+        <v>256</v>
       </c>
       <c r="K31" t="s">
-        <v>227</v>
+        <v>257</v>
       </c>
       <c r="L31" t="s">
-        <v>228</v>
+        <v>258</v>
       </c>
       <c r="M31" t="n">
         <v>3</v>
@@ -3215,50 +3449,54 @@
       <c r="W31" t="s"/>
       <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>229</v>
+        <v>259</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>4769</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C32" t="s">
+        <v>260</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>230</v>
+        <v>261</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>231</v>
+        <v>262</v>
       </c>
       <c r="J32" t="s">
-        <v>232</v>
+        <v>263</v>
       </c>
       <c r="K32" t="s">
-        <v>233</v>
+        <v>264</v>
       </c>
       <c r="L32" t="s">
-        <v>234</v>
+        <v>265</v>
       </c>
       <c r="M32" t="n">
         <v>2</v>
       </c>
       <c r="N32" t="s">
-        <v>235</v>
+        <v>266</v>
       </c>
       <c r="O32" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="P32" t="n">
         <v>2</v>
@@ -3282,50 +3520,54 @@
       <c r="W32" t="s"/>
       <c r="X32" t="s"/>
       <c r="Y32" t="s">
-        <v>236</v>
+        <v>267</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>4769</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C33" t="s">
+        <v>268</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>237</v>
+        <v>269</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>238</v>
+        <v>270</v>
       </c>
       <c r="J33" t="s">
-        <v>239</v>
+        <v>271</v>
       </c>
       <c r="K33" t="s">
-        <v>240</v>
+        <v>272</v>
       </c>
       <c r="L33" t="s">
-        <v>241</v>
+        <v>273</v>
       </c>
       <c r="M33" t="n">
         <v>3</v>
       </c>
       <c r="N33" t="s">
-        <v>242</v>
+        <v>274</v>
       </c>
       <c r="O33" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P33" t="n">
         <v>4</v>
@@ -3349,50 +3591,54 @@
       <c r="W33" t="s"/>
       <c r="X33" t="s"/>
       <c r="Y33" t="s">
-        <v>241</v>
+        <v>273</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>4769</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C34" t="s">
+        <v>275</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>243</v>
+        <v>276</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>244</v>
+        <v>277</v>
       </c>
       <c r="J34" t="s">
-        <v>245</v>
+        <v>278</v>
       </c>
       <c r="K34" t="s">
-        <v>246</v>
+        <v>279</v>
       </c>
       <c r="L34" t="s">
-        <v>247</v>
+        <v>280</v>
       </c>
       <c r="M34" t="n">
         <v>2</v>
       </c>
       <c r="N34" t="s">
-        <v>248</v>
+        <v>281</v>
       </c>
       <c r="O34" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P34" t="n">
         <v>2</v>
@@ -3416,41 +3662,45 @@
       <c r="W34" t="s"/>
       <c r="X34" t="s"/>
       <c r="Y34" t="s">
-        <v>247</v>
+        <v>280</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>4769</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C35" t="s">
+        <v>282</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>249</v>
+        <v>283</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
-        <v>250</v>
+        <v>284</v>
       </c>
       <c r="J35" t="s">
-        <v>251</v>
+        <v>285</v>
       </c>
       <c r="K35" t="s">
-        <v>252</v>
+        <v>286</v>
       </c>
       <c r="L35" t="s">
-        <v>253</v>
+        <v>287</v>
       </c>
       <c r="M35" t="n">
         <v>1</v>
@@ -3479,50 +3729,54 @@
       <c r="W35" t="s"/>
       <c r="X35" t="s"/>
       <c r="Y35" t="s">
-        <v>253</v>
+        <v>287</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>4769</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C36" t="s">
+        <v>288</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>254</v>
+        <v>289</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s">
-        <v>255</v>
+        <v>290</v>
       </c>
       <c r="J36" t="s">
-        <v>256</v>
+        <v>291</v>
       </c>
       <c r="K36" t="s">
-        <v>257</v>
+        <v>292</v>
       </c>
       <c r="L36" t="s">
-        <v>258</v>
+        <v>293</v>
       </c>
       <c r="M36" t="n">
         <v>3</v>
       </c>
       <c r="N36" t="s">
-        <v>259</v>
+        <v>294</v>
       </c>
       <c r="O36" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="P36" t="n">
         <v>3</v>
@@ -3546,50 +3800,54 @@
       <c r="W36" t="s"/>
       <c r="X36" t="s"/>
       <c r="Y36" t="s">
-        <v>260</v>
+        <v>295</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>4769</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C37" t="s">
+        <v>296</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>261</v>
+        <v>297</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I37" t="s">
-        <v>262</v>
+        <v>298</v>
       </c>
       <c r="J37" t="s">
-        <v>263</v>
+        <v>299</v>
       </c>
       <c r="K37" t="s">
-        <v>264</v>
+        <v>300</v>
       </c>
       <c r="L37" t="s">
-        <v>265</v>
+        <v>301</v>
       </c>
       <c r="M37" t="n">
         <v>3</v>
       </c>
       <c r="N37" t="s">
-        <v>266</v>
+        <v>302</v>
       </c>
       <c r="O37" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P37" t="n">
         <v>1</v>
@@ -3613,50 +3871,54 @@
       <c r="W37" t="s"/>
       <c r="X37" t="s"/>
       <c r="Y37" t="s">
-        <v>267</v>
+        <v>303</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>4769</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C38" t="s">
+        <v>304</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>268</v>
+        <v>305</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I38" t="s">
-        <v>269</v>
+        <v>306</v>
       </c>
       <c r="J38" t="s">
-        <v>270</v>
+        <v>307</v>
       </c>
       <c r="K38" t="s">
-        <v>271</v>
+        <v>308</v>
       </c>
       <c r="L38" t="s">
-        <v>272</v>
+        <v>309</v>
       </c>
       <c r="M38" t="n">
         <v>5</v>
       </c>
       <c r="N38" t="s">
-        <v>273</v>
+        <v>310</v>
       </c>
       <c r="O38" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="P38" t="n">
         <v>4</v>
@@ -3680,41 +3942,45 @@
       <c r="W38" t="s"/>
       <c r="X38" t="s"/>
       <c r="Y38" t="s">
-        <v>272</v>
+        <v>309</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>4769</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C39" t="s">
+        <v>311</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>274</v>
+        <v>312</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I39" t="s">
-        <v>275</v>
+        <v>313</v>
       </c>
       <c r="J39" t="s">
-        <v>276</v>
+        <v>314</v>
       </c>
       <c r="K39" t="s">
-        <v>277</v>
+        <v>315</v>
       </c>
       <c r="L39" t="s">
-        <v>278</v>
+        <v>316</v>
       </c>
       <c r="M39" t="n">
         <v>1</v>
@@ -3741,7 +4007,7 @@
       <c r="W39" t="s"/>
       <c r="X39" t="s"/>
       <c r="Y39" t="s">
-        <v>279</v>
+        <v>317</v>
       </c>
     </row>
   </sheetData>
